--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/FIT5120/Week 4/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8176BE3-F70E-EE48-B9A8-49E77B7A2239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE988A-8BF5-E247-BDC9-D04F25A77A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="760" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="5000" yWindow="7900" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="204">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>uploaded</t>
+  </si>
+  <si>
+    <t>until 2017-03-21 06:30</t>
   </si>
 </sst>
 </file>
@@ -896,28 +899,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,11 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,8 +945,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,9 +1285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C31CC8C-ADE8-444D-83D6-A7A39ED7E344}">
   <dimension ref="A12:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <selection pane="topRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,26 +1312,26 @@
   <sheetData>
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1589,11 +1592,11 @@
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="X17" s="20" t="s">
+      <c r="X17" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="30"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1662,7 +1665,7 @@
       <c r="Y18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="31"/>
+      <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1722,14 +1725,16 @@
       <c r="S19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="U19" s="15"/>
       <c r="V19" s="14"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z19" s="31"/>
+      <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1789,7 +1794,7 @@
       <c r="S20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="39" t="s">
+      <c r="T20" s="32" t="s">
         <v>45</v>
       </c>
       <c r="U20" s="15"/>
@@ -1798,7 +1803,7 @@
       <c r="Y20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" s="31"/>
+      <c r="Z20" s="24"/>
     </row>
     <row r="21" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1925,12 +1930,12 @@
       <c r="T22" s="2"/>
       <c r="U22" s="15"/>
       <c r="V22" s="14"/>
-      <c r="AA22" s="22" t="s">
+      <c r="AA22" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="24"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
     </row>
     <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1993,25 +1998,25 @@
       <c r="T23" s="2"/>
       <c r="U23" s="15"/>
       <c r="V23" s="14"/>
-      <c r="X23" s="28" t="s">
+      <c r="X23" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="Y23" s="28" t="s">
+      <c r="Y23" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="Z23" s="28" t="s">
+      <c r="Z23" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AA23" s="32" t="s">
+      <c r="AA23" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="AB23" s="33" t="s">
+      <c r="AB23" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AC23" s="34" t="s">
+      <c r="AC23" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="AD23" s="35" t="s">
+      <c r="AD23" s="28" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2078,16 +2083,16 @@
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14"/>
-      <c r="X24" s="42" t="s">
+      <c r="X24" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="Y24" s="43" t="s">
+      <c r="Y24" s="35" t="s">
         <v>15</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="38"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="38"/>
+      <c r="AC24" s="31"/>
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2151,20 +2156,20 @@
       <c r="T25" s="2"/>
       <c r="U25" s="15"/>
       <c r="V25" s="14"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="46" t="s">
+      <c r="X25" s="38"/>
+      <c r="Y25" s="36" t="s">
         <v>14</v>
       </c>
       <c r="Z25" s="1">
         <v>23.46</v>
       </c>
-      <c r="AA25" s="31">
+      <c r="AA25" s="24">
         <v>24.4</v>
       </c>
       <c r="AB25" s="1">
         <v>27</v>
       </c>
-      <c r="AC25" s="31">
+      <c r="AC25" s="24">
         <v>27.3</v>
       </c>
       <c r="AD25" s="1">
@@ -2232,14 +2237,14 @@
       <c r="T26" s="2"/>
       <c r="U26" s="15"/>
       <c r="V26" s="14"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="43" t="s">
+      <c r="X26" s="39"/>
+      <c r="Y26" s="35" t="s">
         <v>8</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="38"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="38"/>
+      <c r="AC26" s="31"/>
       <c r="AD26" s="2"/>
     </row>
     <row r="27" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2305,16 +2310,16 @@
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="X27" s="26" t="s">
+      <c r="X27" s="45" t="s">
         <v>193</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="38"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="38"/>
+      <c r="AC27" s="31"/>
       <c r="AD27" s="2"/>
     </row>
     <row r="28" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2380,23 +2385,23 @@
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="43" t="s">
+      <c r="X28" s="46"/>
+      <c r="Y28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="40">
+      <c r="Z28" s="33">
         <v>1.73</v>
       </c>
-      <c r="AA28" s="36">
+      <c r="AA28" s="29">
         <v>1</v>
       </c>
-      <c r="AB28" s="40">
+      <c r="AB28" s="33">
         <v>3</v>
       </c>
-      <c r="AC28" s="36">
+      <c r="AC28" s="29">
         <v>3.3</v>
       </c>
-      <c r="AD28" s="40">
+      <c r="AD28" s="33">
         <v>4</v>
       </c>
     </row>
@@ -2461,16 +2466,16 @@
       <c r="T29" s="2"/>
       <c r="U29" s="15"/>
       <c r="V29" s="14"/>
-      <c r="X29" s="42" t="s">
+      <c r="X29" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="Y29" s="46" t="s">
+      <c r="Y29" s="36" t="s">
         <v>32</v>
       </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="38"/>
+      <c r="AA29" s="31"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="38"/>
+      <c r="AC29" s="31"/>
       <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2536,20 +2541,20 @@
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="43" t="s">
+      <c r="X30" s="39"/>
+      <c r="Y30" s="35" t="s">
         <v>11</v>
       </c>
       <c r="Z30" s="1">
         <v>239.67</v>
       </c>
-      <c r="AA30" s="31">
+      <c r="AA30" s="24">
         <v>240</v>
       </c>
       <c r="AB30" s="1">
         <v>247</v>
       </c>
-      <c r="AC30" s="31">
+      <c r="AC30" s="24">
         <v>247.69</v>
       </c>
       <c r="AD30" s="1">
@@ -2626,9 +2631,9 @@
         <v>57</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="38"/>
+      <c r="AA31" s="31"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="38"/>
+      <c r="AC31" s="31"/>
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2694,16 +2699,16 @@
       </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="X32" s="42" t="s">
+      <c r="X32" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="Y32" s="43" t="s">
+      <c r="Y32" s="35" t="s">
         <v>7</v>
       </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="31"/>
+      <c r="AA32" s="24"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="31"/>
+      <c r="AC32" s="24"/>
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2767,14 +2772,14 @@
       <c r="T33" s="2"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="46" t="s">
+      <c r="X33" s="38"/>
+      <c r="Y33" s="36" t="s">
         <v>37</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="38"/>
+      <c r="AA33" s="31"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="38"/>
+      <c r="AC33" s="31"/>
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2838,20 +2843,20 @@
       <c r="T34" s="2"/>
       <c r="U34" s="15"/>
       <c r="V34" s="14"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="43" t="s">
+      <c r="X34" s="38"/>
+      <c r="Y34" s="35" t="s">
         <v>28</v>
       </c>
       <c r="Z34" s="1">
         <v>28.59</v>
       </c>
-      <c r="AA34" s="31">
+      <c r="AA34" s="24">
         <v>30.8</v>
       </c>
       <c r="AB34" s="1">
         <v>35</v>
       </c>
-      <c r="AC34" s="31">
+      <c r="AC34" s="24">
         <v>35.299999999999997</v>
       </c>
       <c r="AD34" s="1">
@@ -2921,20 +2926,20 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="46" t="s">
+      <c r="X35" s="38"/>
+      <c r="Y35" s="36" t="s">
         <v>13</v>
       </c>
       <c r="Z35" s="2">
         <v>63.99</v>
       </c>
-      <c r="AA35" s="38">
+      <c r="AA35" s="31">
         <v>65</v>
       </c>
       <c r="AB35" s="2">
         <v>66.5</v>
       </c>
-      <c r="AC35" s="38">
+      <c r="AC35" s="31">
         <v>67.150000000000006</v>
       </c>
       <c r="AD35" s="2">
@@ -3004,20 +3009,20 @@
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="43" t="s">
+      <c r="X36" s="39"/>
+      <c r="Y36" s="35" t="s">
         <v>12</v>
       </c>
       <c r="Z36" s="1">
         <v>10.92</v>
       </c>
-      <c r="AA36" s="31">
+      <c r="AA36" s="24">
         <v>10</v>
       </c>
       <c r="AB36" s="1">
         <v>13</v>
       </c>
-      <c r="AC36" s="31">
+      <c r="AC36" s="24">
         <v>13.75</v>
       </c>
       <c r="AD36" s="1">
@@ -3085,7 +3090,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="15"/>
       <c r="V37" s="14"/>
-      <c r="X37" s="26" t="s">
+      <c r="X37" s="45" t="s">
         <v>198</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -3094,13 +3099,13 @@
       <c r="Z37" s="2">
         <v>52.17</v>
       </c>
-      <c r="AA37" s="38">
+      <c r="AA37" s="31">
         <v>52</v>
       </c>
       <c r="AB37" s="2">
         <v>54</v>
       </c>
-      <c r="AC37" s="38">
+      <c r="AC37" s="31">
         <v>54.24</v>
       </c>
       <c r="AD37" s="2">
@@ -3170,20 +3175,20 @@
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="43" t="s">
+      <c r="X38" s="46"/>
+      <c r="Y38" s="35" t="s">
         <v>34</v>
       </c>
       <c r="Z38" s="1">
         <v>31.62</v>
       </c>
-      <c r="AA38" s="31">
+      <c r="AA38" s="24">
         <v>32</v>
       </c>
       <c r="AB38" s="1">
         <v>35</v>
       </c>
-      <c r="AC38" s="31">
+      <c r="AC38" s="24">
         <v>35.65</v>
       </c>
       <c r="AD38" s="1">
@@ -3251,16 +3256,16 @@
       <c r="T39" s="2"/>
       <c r="U39" s="15"/>
       <c r="V39" s="14"/>
-      <c r="X39" s="42" t="s">
+      <c r="X39" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="Y39" s="46" t="s">
+      <c r="Y39" s="36" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="38"/>
+      <c r="AA39" s="31"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="38"/>
+      <c r="AC39" s="31"/>
       <c r="AD39" s="2"/>
     </row>
     <row r="40" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3324,20 +3329,20 @@
       <c r="T40" s="2"/>
       <c r="U40" s="15"/>
       <c r="V40" s="14"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="43" t="s">
+      <c r="X40" s="38"/>
+      <c r="Y40" s="35" t="s">
         <v>23</v>
       </c>
       <c r="Z40" s="1">
         <v>11.28</v>
       </c>
-      <c r="AA40" s="31">
+      <c r="AA40" s="24">
         <v>13</v>
       </c>
       <c r="AB40" s="1">
         <v>15</v>
       </c>
-      <c r="AC40" s="31">
+      <c r="AC40" s="24">
         <v>15.24</v>
       </c>
       <c r="AD40" s="1">
@@ -3407,14 +3412,14 @@
       </c>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="46" t="s">
+      <c r="X41" s="38"/>
+      <c r="Y41" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="38"/>
+      <c r="AA41" s="31"/>
       <c r="AB41" s="2"/>
-      <c r="AC41" s="38"/>
+      <c r="AC41" s="31"/>
       <c r="AD41" s="2"/>
     </row>
     <row r="42" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3478,14 +3483,14 @@
       <c r="T42" s="2"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="43" t="s">
+      <c r="X42" s="39"/>
+      <c r="Y42" s="35" t="s">
         <v>39</v>
       </c>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="31"/>
+      <c r="AA42" s="24"/>
       <c r="AB42" s="1"/>
-      <c r="AC42" s="31"/>
+      <c r="AC42" s="24"/>
       <c r="AD42" s="1"/>
     </row>
     <row r="43" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3549,16 +3554,16 @@
       <c r="T43" s="2"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="X43" s="25" t="s">
+      <c r="X43" s="20" t="s">
         <v>199</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="38"/>
+      <c r="AA43" s="31"/>
       <c r="AB43" s="2"/>
-      <c r="AC43" s="38"/>
+      <c r="AC43" s="31"/>
       <c r="AD43" s="2"/>
     </row>
     <row r="44" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3624,22 +3629,22 @@
       </c>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
-      <c r="X44" s="42" t="s">
+      <c r="X44" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="Y44" s="43" t="s">
+      <c r="Y44" s="35" t="s">
         <v>33</v>
       </c>
       <c r="Z44" s="1">
         <v>4.87</v>
       </c>
-      <c r="AA44" s="31">
+      <c r="AA44" s="24">
         <v>5</v>
       </c>
       <c r="AB44" s="1">
         <v>6.5</v>
       </c>
-      <c r="AC44" s="31">
+      <c r="AC44" s="24">
         <v>6.65</v>
       </c>
       <c r="AD44" s="1">
@@ -3709,20 +3714,20 @@
       </c>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="46" t="s">
+      <c r="X45" s="38"/>
+      <c r="Y45" s="36" t="s">
         <v>25</v>
       </c>
       <c r="Z45" s="2">
         <v>17.78</v>
       </c>
-      <c r="AA45" s="38">
+      <c r="AA45" s="31">
         <v>18</v>
       </c>
       <c r="AB45" s="2">
         <v>19.8</v>
       </c>
-      <c r="AC45" s="38">
+      <c r="AC45" s="31">
         <v>20.7</v>
       </c>
       <c r="AD45" s="2">
@@ -3792,23 +3797,23 @@
       </c>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="43" t="s">
+      <c r="X46" s="39"/>
+      <c r="Y46" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Z46" s="41">
+      <c r="Z46" s="34">
         <v>8.73</v>
       </c>
-      <c r="AA46" s="37">
+      <c r="AA46" s="30">
         <v>8.5</v>
       </c>
-      <c r="AB46" s="41">
+      <c r="AB46" s="34">
         <v>11</v>
       </c>
-      <c r="AC46" s="37">
+      <c r="AC46" s="30">
         <v>11.9</v>
       </c>
-      <c r="AD46" s="41">
+      <c r="AD46" s="34">
         <v>12.8</v>
       </c>
     </row>
@@ -3873,8 +3878,8 @@
       <c r="T47" s="2"/>
       <c r="U47" s="15"/>
       <c r="V47" s="14"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
     </row>
     <row r="48" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3937,8 +3942,8 @@
       <c r="T48" s="2"/>
       <c r="U48" s="15"/>
       <c r="V48" s="14"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
     </row>
     <row r="49" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -4001,8 +4006,8 @@
       <c r="T49" s="2"/>
       <c r="U49" s="15"/>
       <c r="V49" s="14"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
     </row>
     <row r="50" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4065,8 +4070,8 @@
       <c r="T50" s="2"/>
       <c r="U50" s="15"/>
       <c r="V50" s="14"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
     </row>
     <row r="51" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4129,8 +4134,8 @@
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
       <c r="V51" s="14"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
     </row>
     <row r="52" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4193,8 +4198,8 @@
       <c r="T52" s="2"/>
       <c r="U52" s="15"/>
       <c r="V52" s="14"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
     </row>
     <row r="53" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -4257,8 +4262,8 @@
       <c r="T53" s="2"/>
       <c r="U53" s="15"/>
       <c r="V53" s="14"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
     </row>
     <row r="54" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4321,33 +4326,33 @@
       <c r="T54" s="2"/>
       <c r="U54" s="15"/>
       <c r="V54" s="14"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z59" s="31"/>
+      <c r="Z59" s="24"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z60" s="31"/>
+      <c r="Z60" s="24"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z61" s="31"/>
+      <c r="Z61" s="24"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z62" s="31"/>
+      <c r="Z62" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X32:X36"/>
+    <mergeCell ref="X37:X38"/>
     <mergeCell ref="X44:X46"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="B13:S13"/>
     <mergeCell ref="X39:X42"/>
     <mergeCell ref="X24:X26"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X32:X36"/>
-    <mergeCell ref="X37:X38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE988A-8BF5-E247-BDC9-D04F25A77A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B984D26A-D911-F44F-8EBE-03F51E94822E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="7900" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="1320" yWindow="580" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>until 2017-03-21 06:30</t>
+  </si>
+  <si>
+    <t>until 2013-03-09 23:45 (2013-5749)</t>
+  </si>
+  <si>
+    <t>until 2012-03-25 08:30</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1293,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T32" sqref="T32"/>
+      <selection pane="topRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1734,7 @@
       <c r="T19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="U19" s="15"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="14"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="2" t="s">
@@ -1927,8 +1933,10 @@
       <c r="S22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="15"/>
+      <c r="T22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="13"/>
       <c r="V22" s="14"/>
       <c r="AA22" s="42" t="s">
         <v>188</v>
@@ -1995,8 +2003,10 @@
       <c r="S23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="15"/>
+      <c r="T23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="X23" s="21" t="s">
         <v>184</v>
@@ -2079,9 +2089,9 @@
         <v>121</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="U24" s="13"/>
       <c r="V24" s="14"/>
       <c r="X24" s="37" t="s">
         <v>187</v>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B984D26A-D911-F44F-8EBE-03F51E94822E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80933BD7-3A89-4240-B551-0F35079055FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="580" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>remark</t>
   </si>
   <si>
-    <t>until 2017-08-13 04:00</t>
-  </si>
-  <si>
     <t>will not upload at iteration 1</t>
   </si>
   <si>
@@ -636,13 +633,16 @@
     <t>uploaded</t>
   </si>
   <si>
-    <t>until 2017-03-21 06:30</t>
-  </si>
-  <si>
-    <t>until 2013-03-09 23:45 (2013-5749)</t>
-  </si>
-  <si>
-    <t>until 2012-03-25 08:30</t>
+    <t>until 2013-03-09 23:45 (2013-5749) to 2013-12-31</t>
+  </si>
+  <si>
+    <t>until 2012-03-25 08:30 (2012-8104) to 2012-12-31</t>
+  </si>
+  <si>
+    <t>until 2017-08-13 04:00 (2017-16116) to 2018-08-14</t>
+  </si>
+  <si>
+    <t>until 2017-03-21 06:30 (2017-4308) to 2018-08-14</t>
   </si>
 </sst>
 </file>
@@ -942,21 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,6 +956,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1293,7 +1293,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <selection pane="topRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,93 +1318,93 @@
   <sheetData>
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
+      <c r="B13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="11">
         <v>2010</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11">
         <v>2011</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="11">
         <v>2012</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="11">
         <v>2013</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="11">
         <v>2014</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="11">
         <v>2015</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="11">
         <v>2016</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" s="11">
         <v>2017</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R14" s="11">
         <v>2018</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1415,58 +1415,58 @@
         <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5">
         <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6">
         <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="6">
         <v>59</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="6">
         <v>50</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="6">
         <v>56</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="6">
         <v>58</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="6">
         <v>55</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" s="5">
         <v>37</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="15"/>
@@ -1479,58 +1479,58 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7">
         <v>0</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R16" s="7">
         <v>0</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="15"/>
@@ -1543,65 +1543,65 @@
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5">
         <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5">
         <v>60</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="6">
         <v>51</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="6">
         <v>46</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="6">
         <v>53</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="5">
         <v>60</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="6">
         <v>47</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R17" s="5">
         <v>37</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="X17" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="41"/>
+      <c r="X17" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="46"/>
       <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1612,58 +1612,58 @@
         <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6">
         <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5">
         <v>60</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="5">
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="6">
         <v>50</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="6">
         <v>58</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N18" s="5">
         <v>60</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P18" s="6">
         <v>55</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R18" s="5">
         <v>37</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U18" s="14"/>
       <c r="V18" s="15"/>
@@ -1681,58 +1681,58 @@
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6">
         <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="6">
         <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="6">
         <v>52</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="6">
         <v>50</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="5">
         <v>60</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N19" s="5">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="6">
         <v>50</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19" s="6">
         <v>12</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="14"/>
@@ -1750,58 +1750,58 @@
         <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6">
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7">
         <v>0</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R20" s="7">
         <v>0</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -1819,58 +1819,58 @@
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="6">
         <v>59</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N21" s="6">
         <v>51</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="6">
         <v>54</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R21" s="6">
         <v>21</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -1883,67 +1883,67 @@
         <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6">
         <v>55</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="6">
         <v>34</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="6">
         <v>54</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="6">
         <v>45</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="5">
         <v>60</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N22" s="6">
         <v>59</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="6">
         <v>51</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R22" s="6">
         <v>36</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="14"/>
-      <c r="AA22" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="44"/>
+      <c r="AA22" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
     </row>
     <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1953,81 +1953,81 @@
         <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5">
         <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="5">
         <v>60</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="5">
         <v>60</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="6">
         <v>51</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" s="5">
         <v>60</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N23" s="6">
         <v>59</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="6">
         <v>55</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R23" s="6">
         <v>36</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="X23" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="Y23" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="Z23" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA23" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB23" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="AB23" s="26" t="s">
+      <c r="AC23" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="AC23" s="27" t="s">
+      <c r="AD23" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="AD23" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2038,63 +2038,63 @@
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6">
         <v>47</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="6">
         <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5">
         <v>60</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="6">
         <v>45</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="5">
         <v>60</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N24" s="6">
         <v>52</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P24" s="6">
         <v>16</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R24" s="6">
         <v>28</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="14"/>
-      <c r="X24" s="37" t="s">
-        <v>187</v>
+      <c r="X24" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="Y24" s="35" t="s">
         <v>15</v>
@@ -2113,60 +2113,60 @@
         <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5">
         <v>60</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="5">
         <v>60</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="5">
         <v>60</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="6">
         <v>48</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L25" s="5">
         <v>60</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N25" s="5">
         <v>60</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" s="6">
         <v>55</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R25" s="6">
         <v>36</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="15"/>
       <c r="V25" s="14"/>
-      <c r="X25" s="38"/>
+      <c r="X25" s="44"/>
       <c r="Y25" s="36" t="s">
         <v>14</v>
       </c>
@@ -2194,60 +2194,60 @@
         <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="5">
         <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="5">
         <v>60</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="5">
         <v>60</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="6">
         <v>49</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L26" s="5">
         <v>60</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N26" s="5">
         <v>60</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P26" s="6">
         <v>55</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R26" s="5">
         <v>37</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="15"/>
       <c r="V26" s="14"/>
-      <c r="X26" s="39"/>
+      <c r="X26" s="43"/>
       <c r="Y26" s="35" t="s">
         <v>8</v>
       </c>
@@ -2265,63 +2265,63 @@
         <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J27" s="6">
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L27" s="5">
         <v>60</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="6">
         <v>49</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="6">
         <v>19</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R27" s="6">
         <v>3</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="X27" s="45" t="s">
-        <v>193</v>
+      <c r="X27" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
@@ -2340,62 +2340,62 @@
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" s="6">
         <v>19</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="6">
+        <v>57</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="L28" s="6">
-        <v>57</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="N28" s="6">
         <v>44</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P28" s="6">
         <v>44</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R28" s="5">
         <v>37</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="X28" s="46"/>
+      <c r="X28" s="41"/>
       <c r="Y28" s="35" t="s">
         <v>24</v>
       </c>
@@ -2423,61 +2423,61 @@
         <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5">
         <v>60</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="5">
         <v>60</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="6">
         <v>55</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J29" s="6">
         <v>42</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L29" s="6">
         <v>58</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N29" s="6">
         <v>57</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P29" s="6">
         <v>52</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R29" s="5">
         <v>37</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="15"/>
       <c r="V29" s="14"/>
-      <c r="X29" s="37" t="s">
-        <v>194</v>
+      <c r="X29" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="Y29" s="36" t="s">
         <v>32</v>
@@ -2496,62 +2496,62 @@
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="6">
         <v>19</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="5">
         <v>60</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30" s="6">
         <v>54</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P30" s="6">
         <v>54</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R30" s="5">
         <v>37</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="X30" s="39"/>
+      <c r="X30" s="43"/>
       <c r="Y30" s="35" t="s">
         <v>11</v>
       </c>
@@ -2579,66 +2579,66 @@
         <v>0</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" s="6">
         <v>17</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="6">
         <v>59</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N31" s="6">
         <v>56</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P31" s="6">
         <v>48</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R31" s="6">
         <v>30</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U31" s="15"/>
       <c r="V31" s="14"/>
       <c r="X31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="31"/>
@@ -2654,63 +2654,63 @@
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J32" s="6">
         <v>13</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L32" s="6">
         <v>59</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N32" s="6">
         <v>57</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P32" s="6">
         <v>49</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R32" s="5">
         <v>37</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="X32" s="37" t="s">
-        <v>197</v>
+      <c r="X32" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="Y32" s="35" t="s">
         <v>7</v>
@@ -2729,60 +2729,60 @@
         <v>0</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6">
         <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="5">
         <v>60</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="5">
         <v>60</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="6">
         <v>49</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L33" s="6">
         <v>59</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N33" s="5">
         <v>60</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="6">
         <v>55</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R33" s="6">
         <v>36</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="X33" s="38"/>
+      <c r="X33" s="44"/>
       <c r="Y33" s="36" t="s">
         <v>37</v>
       </c>
@@ -2800,60 +2800,60 @@
         <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="5">
         <v>60</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="5">
         <v>60</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="5">
         <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="6">
         <v>50</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L34" s="5">
         <v>60</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="5">
         <v>60</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P34" s="6">
         <v>55</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R34" s="6">
         <v>36</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="15"/>
       <c r="V34" s="14"/>
-      <c r="X34" s="38"/>
+      <c r="X34" s="44"/>
       <c r="Y34" s="35" t="s">
         <v>28</v>
       </c>
@@ -2881,62 +2881,62 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J35" s="6">
         <v>18</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L35" s="6">
         <v>59</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N35" s="6">
         <v>59</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P35" s="6">
         <v>49</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R35" s="6">
         <v>36</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="X35" s="38"/>
+      <c r="X35" s="44"/>
       <c r="Y35" s="36" t="s">
         <v>13</v>
       </c>
@@ -2964,62 +2964,62 @@
         <v>0</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="7">
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J36" s="6">
         <v>18</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L36" s="6">
         <v>59</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N36" s="5">
         <v>60</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P36" s="6">
         <v>55</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R36" s="5">
         <v>37</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="X36" s="39"/>
+      <c r="X36" s="43"/>
       <c r="Y36" s="35" t="s">
         <v>12</v>
       </c>
@@ -3047,61 +3047,61 @@
         <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="5">
         <v>60</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="5">
         <v>60</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="6">
         <v>59</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J37" s="6">
         <v>49</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L37" s="5">
         <v>60</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" s="5">
         <v>60</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P37" s="6">
         <v>55</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R37" s="5">
         <v>37</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="15"/>
       <c r="V37" s="14"/>
-      <c r="X37" s="45" t="s">
-        <v>198</v>
+      <c r="X37" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="Y37" s="3" t="s">
         <v>31</v>
@@ -3130,62 +3130,62 @@
         <v>0</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J38" s="6">
         <v>18</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L38" s="5">
         <v>60</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N38" s="5">
         <v>60</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P38" s="6">
         <v>55</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R38" s="5">
         <v>37</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14"/>
-      <c r="X38" s="46"/>
+      <c r="X38" s="41"/>
       <c r="Y38" s="35" t="s">
         <v>34</v>
       </c>
@@ -3213,61 +3213,61 @@
         <v>60</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="5">
         <v>60</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="5">
         <v>60</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="5">
         <v>60</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="6">
         <v>50</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="5">
         <v>60</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N39" s="5">
         <v>60</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="6">
         <v>54</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R39" s="5">
         <v>37</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="15"/>
       <c r="V39" s="14"/>
-      <c r="X39" s="37" t="s">
-        <v>186</v>
+      <c r="X39" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="Y39" s="36" t="s">
         <v>2</v>
@@ -3286,60 +3286,60 @@
         <v>59</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="6">
         <v>44</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="5">
         <v>60</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="6">
         <v>56</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J40" s="6">
         <v>50</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L40" s="6">
         <v>42</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N40" s="6">
         <v>58</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P40" s="6">
         <v>50</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R40" s="5">
         <v>37</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="15"/>
       <c r="V40" s="14"/>
-      <c r="X40" s="38"/>
+      <c r="X40" s="44"/>
       <c r="Y40" s="35" t="s">
         <v>23</v>
       </c>
@@ -3367,62 +3367,62 @@
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J41" s="6">
         <v>19</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41" s="6">
         <v>58</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N41" s="6">
         <v>59</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P41" s="6">
         <v>54</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R41" s="6">
         <v>34</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="X41" s="38"/>
+      <c r="X41" s="44"/>
       <c r="Y41" s="36" t="s">
         <v>9</v>
       </c>
@@ -3440,60 +3440,60 @@
         <v>0</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6">
         <v>47</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="5">
         <v>60</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42" s="6">
         <v>43</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J42" s="6">
         <v>37</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L42" s="6">
         <v>48</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N42" s="6">
         <v>46</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P42" s="6">
         <v>55</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R42" s="6">
         <v>26</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="X42" s="39"/>
+      <c r="X42" s="43"/>
       <c r="Y42" s="35" t="s">
         <v>39</v>
       </c>
@@ -3511,61 +3511,61 @@
         <v>60</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="5">
         <v>60</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="5">
         <v>60</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="6">
         <v>53</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="6">
         <v>39</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L43" s="5">
         <v>60</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N43" s="5">
         <v>60</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P43" s="6">
         <v>55</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R43" s="6">
         <v>13</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="X43" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>22</v>
@@ -3584,63 +3584,63 @@
         <v>0</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J44" s="6">
         <v>18</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L44" s="6">
         <v>58</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N44" s="6">
         <v>50</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P44" s="7">
         <v>0</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R44" s="7">
         <v>0</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
-      <c r="X44" s="37" t="s">
-        <v>200</v>
+      <c r="X44" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="Y44" s="35" t="s">
         <v>33</v>
@@ -3669,62 +3669,62 @@
         <v>0</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="7">
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7">
         <v>0</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45" s="6">
         <v>19</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" s="6">
         <v>59</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N45" s="6">
         <v>59</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P45" s="6">
         <v>54</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R45" s="5">
         <v>37</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="X45" s="38"/>
+      <c r="X45" s="44"/>
       <c r="Y45" s="36" t="s">
         <v>25</v>
       </c>
@@ -3752,62 +3752,62 @@
         <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J46" s="6">
         <v>19</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" s="6">
         <v>59</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N46" s="6">
         <v>57</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P46" s="6">
         <v>54</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R46" s="6">
         <v>26</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
-      <c r="X46" s="39"/>
+      <c r="X46" s="43"/>
       <c r="Y46" s="35" t="s">
         <v>10</v>
       </c>
@@ -3835,55 +3835,55 @@
         <v>60</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="6">
         <v>58</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F47" s="5">
         <v>60</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H47" s="5">
         <v>60</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>32</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L47" s="6">
         <v>56</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N47" s="5">
         <v>60</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P47" s="6">
         <v>55</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R47" s="6">
         <v>32</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="15"/>
@@ -3899,55 +3899,55 @@
         <v>60</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="6">
         <v>59</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="5">
         <v>60</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="6">
         <v>58</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" s="6">
         <v>49</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" s="5">
         <v>60</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N48" s="5">
         <v>60</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P48" s="6">
         <v>55</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R48" s="5">
         <v>37</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="15"/>
@@ -3963,55 +3963,55 @@
         <v>49</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="6">
         <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" s="5">
         <v>60</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49" s="5">
         <v>60</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="6">
         <v>51</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L49" s="5">
         <v>60</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N49" s="5">
         <v>60</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P49" s="6">
         <v>53</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R49" s="5">
         <v>37</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="15"/>
@@ -4027,55 +4027,55 @@
         <v>60</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6">
         <v>52</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="6">
         <v>59</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H50" s="5">
         <v>60</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" s="6">
         <v>46</v>
       </c>
       <c r="K50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" s="6">
+        <v>57</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L50" s="6">
-        <v>57</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="N50" s="5">
         <v>60</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P50" s="6">
         <v>55</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R50" s="5">
         <v>37</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="15"/>
@@ -4091,55 +4091,55 @@
         <v>55</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="6">
         <v>55</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F51" s="5">
         <v>60</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="5">
         <v>60</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="6">
         <v>51</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L51" s="6">
         <v>59</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N51" s="5">
         <v>60</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="6">
         <v>55</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R51" s="5">
         <v>37</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
@@ -4155,55 +4155,55 @@
         <v>60</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5">
         <v>60</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="5">
         <v>60</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H52" s="6">
         <v>50</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J52" s="6">
         <v>49</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L52" s="6">
         <v>58</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N52" s="5">
         <v>60</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P52" s="6">
         <v>53</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R52" s="5">
         <v>37</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="15"/>
@@ -4219,55 +4219,55 @@
         <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="6">
         <v>56</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="5">
         <v>60</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H53" s="5">
         <v>60</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" s="6">
         <v>49</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L53" s="6">
         <v>59</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N53" s="6">
         <v>57</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P53" s="6">
         <v>52</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R53" s="5">
         <v>37</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="15"/>
@@ -4283,55 +4283,55 @@
         <v>60</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="6">
         <v>58</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54" s="6">
         <v>59</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H54" s="5">
         <v>60</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J54" s="6">
         <v>51</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L54" s="5">
         <v>60</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N54" s="6">
         <v>58</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P54" s="6">
         <v>47</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R54" s="6">
         <v>35</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="15"/>
@@ -4353,16 +4353,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="X39:X42"/>
+    <mergeCell ref="X24:X26"/>
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="X27:X28"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="X32:X36"/>
     <mergeCell ref="X37:X38"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="X39:X42"/>
-    <mergeCell ref="X24:X26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80933BD7-3A89-4240-B551-0F35079055FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6C01B-AAE5-594B-9CCD-EFFB0BE4FD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="580" windowWidth="49880" windowHeight="26720" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="25640" yWindow="0" windowWidth="25560" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="207">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>until 2017-03-21 06:30 (2017-4308) to 2018-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uploaded </t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -942,6 +951,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,20 +981,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1292,8 +1313,8 @@
   <dimension ref="A12:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T19" sqref="T19"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,26 +1339,26 @@
   <sheetData>
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="39"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1469,7 +1490,7 @@
         <v>204</v>
       </c>
       <c r="U15" s="13"/>
-      <c r="V15" s="15"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -1597,11 +1618,11 @@
         <v>201</v>
       </c>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="X17" s="45" t="s">
+      <c r="V17" s="15"/>
+      <c r="X17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="41"/>
       <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1663,10 +1684,10 @@
         <v>56</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="U18" s="14"/>
-      <c r="V18" s="15"/>
+      <c r="V18" s="14"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="2" t="s">
         <v>42</v>
@@ -1735,7 +1756,7 @@
         <v>205</v>
       </c>
       <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
+      <c r="V19" s="15"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="2" t="s">
         <v>40</v>
@@ -1937,13 +1958,13 @@
         <v>202</v>
       </c>
       <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="AA22" s="37" t="s">
+      <c r="V22" s="15"/>
+      <c r="AA22" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="39"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
     </row>
     <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2092,8 +2113,8 @@
         <v>203</v>
       </c>
       <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="X24" s="42" t="s">
+      <c r="V24" s="15"/>
+      <c r="X24" s="37" t="s">
         <v>186</v>
       </c>
       <c r="Y24" s="35" t="s">
@@ -2163,10 +2184,12 @@
       <c r="S25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="15"/>
+      <c r="T25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="X25" s="44"/>
+      <c r="X25" s="38"/>
       <c r="Y25" s="36" t="s">
         <v>14</v>
       </c>
@@ -2247,7 +2270,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="15"/>
       <c r="V26" s="14"/>
-      <c r="X26" s="43"/>
+      <c r="X26" s="39"/>
       <c r="Y26" s="35" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2343,7 @@
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="X27" s="40" t="s">
+      <c r="X27" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -2395,7 +2418,7 @@
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="X28" s="41"/>
+      <c r="X28" s="46"/>
       <c r="Y28" s="35" t="s">
         <v>24</v>
       </c>
@@ -2475,8 +2498,8 @@
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="14"/>
-      <c r="X29" s="42" t="s">
+      <c r="V29" s="15"/>
+      <c r="X29" s="37" t="s">
         <v>193</v>
       </c>
       <c r="Y29" s="36" t="s">
@@ -2551,7 +2574,7 @@
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="X30" s="43"/>
+      <c r="X30" s="39"/>
       <c r="Y30" s="35" t="s">
         <v>11</v>
       </c>
@@ -2629,22 +2652,30 @@
       <c r="S31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="T31" s="2"/>
       <c r="U31" s="15"/>
       <c r="V31" s="14"/>
       <c r="X31" s="3" t="s">
         <v>195</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>8.68</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="31">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>9.14</v>
+      </c>
     </row>
     <row r="32" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2709,7 +2740,7 @@
       </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="X32" s="42" t="s">
+      <c r="X32" s="37" t="s">
         <v>196</v>
       </c>
       <c r="Y32" s="35" t="s">
@@ -2779,10 +2810,12 @@
       <c r="S33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T33" s="2"/>
+      <c r="T33" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="X33" s="44"/>
+      <c r="X33" s="38"/>
       <c r="Y33" s="36" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +2886,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="15"/>
       <c r="V34" s="14"/>
-      <c r="X34" s="44"/>
+      <c r="X34" s="38"/>
       <c r="Y34" s="35" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2969,7 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="X35" s="44"/>
+      <c r="X35" s="38"/>
       <c r="Y35" s="36" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3052,7 @@
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="X36" s="43"/>
+      <c r="X36" s="39"/>
       <c r="Y36" s="35" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3133,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="15"/>
       <c r="V37" s="14"/>
-      <c r="X37" s="40" t="s">
+      <c r="X37" s="45" t="s">
         <v>197</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -3180,12 +3213,10 @@
       <c r="S38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="T38" s="2"/>
       <c r="U38" s="15"/>
       <c r="V38" s="14"/>
-      <c r="X38" s="41"/>
+      <c r="X38" s="49"/>
       <c r="Y38" s="35" t="s">
         <v>34</v>
       </c>
@@ -3205,7 +3236,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -3266,10 +3297,10 @@
       <c r="T39" s="2"/>
       <c r="U39" s="15"/>
       <c r="V39" s="14"/>
-      <c r="X39" s="42" t="s">
+      <c r="X39" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="36" t="s">
+      <c r="Y39" s="47" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="2"/>
@@ -3338,9 +3369,9 @@
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="14"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="35" t="s">
+      <c r="V40" s="15"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="48" t="s">
         <v>23</v>
       </c>
       <c r="Z40" s="1">
@@ -3422,15 +3453,25 @@
       </c>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="36" t="s">
+      <c r="X41" s="38"/>
+      <c r="Y41" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="2"/>
+      <c r="Z41" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>29</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC41" s="31">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="42" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3490,20 +3531,32 @@
       <c r="S42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="T42" s="2"/>
+      <c r="T42" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="35" t="s">
+      <c r="X42" s="38"/>
+      <c r="Y42" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="AC42" s="16">
+        <v>20.25</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3561,20 +3614,30 @@
       <c r="S43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="T43" s="2"/>
+      <c r="T43" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="X43" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="2"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>23.5</v>
+      </c>
+      <c r="AB43" s="16">
+        <v>24</v>
+      </c>
+      <c r="AC43" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="AD43" s="16">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="44" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3639,27 +3702,17 @@
       </c>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
-      <c r="X44" s="42" t="s">
-        <v>199</v>
+      <c r="X44" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="Y44" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>4.87</v>
-      </c>
-      <c r="AA44" s="24">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AC44" s="24">
-        <v>6.65</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="2"/>
     </row>
     <row r="45" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3724,24 +3777,26 @@
       </c>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="AA45" s="31">
-        <v>18</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="AC45" s="31">
-        <v>20.7</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>21.6</v>
+      <c r="X45" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y45" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="AA45" s="24">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AC45" s="24">
+        <v>6.65</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3807,24 +3862,24 @@
       </c>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
-      <c r="X46" s="43"/>
+      <c r="X46" s="38"/>
       <c r="Y46" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z46" s="34">
-        <v>8.73</v>
-      </c>
-      <c r="AA46" s="30">
-        <v>8.5</v>
-      </c>
-      <c r="AB46" s="34">
-        <v>11</v>
-      </c>
-      <c r="AC46" s="30">
-        <v>11.9</v>
-      </c>
-      <c r="AD46" s="34">
-        <v>12.8</v>
+        <v>25</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="AA46" s="31">
+        <v>18</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="AC46" s="31">
+        <v>20.7</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>21.6</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3887,9 +3942,26 @@
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="14"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
+      <c r="V47" s="15"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z47" s="34">
+        <v>8.73</v>
+      </c>
+      <c r="AA47" s="30">
+        <v>8.5</v>
+      </c>
+      <c r="AB47" s="34">
+        <v>11</v>
+      </c>
+      <c r="AC47" s="30">
+        <v>11.9</v>
+      </c>
+      <c r="AD47" s="34">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="48" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4144,8 +4216,6 @@
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
       <c r="V51" s="14"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
     </row>
     <row r="52" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4208,8 +4278,6 @@
       <c r="T52" s="2"/>
       <c r="U52" s="15"/>
       <c r="V52" s="14"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
     </row>
     <row r="53" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -4272,8 +4340,6 @@
       <c r="T53" s="2"/>
       <c r="U53" s="15"/>
       <c r="V53" s="14"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
     </row>
     <row r="54" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4335,9 +4401,7 @@
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="15"/>
-      <c r="V54" s="14"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
+      <c r="V54" s="15"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Z59" s="24"/>
@@ -4353,16 +4417,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="X39:X42"/>
-    <mergeCell ref="X24:X26"/>
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="X27:X28"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="X32:X36"/>
     <mergeCell ref="X37:X38"/>
+    <mergeCell ref="X45:X47"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X39:X43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6C01B-AAE5-594B-9CCD-EFFB0BE4FD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E4D2F-A953-294A-ABF4-2E0A7B243A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="0" windowWidth="25560" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="208">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t xml:space="preserve">uploaded </t>
+  </si>
+  <si>
+    <t>until 2017-08-14 12:45 (2017-15531) to 2017-12-31</t>
   </si>
 </sst>
 </file>
@@ -951,20 +954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,17 +978,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1313,8 +1316,8 @@
   <dimension ref="A12:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W52" sqref="W52"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,26 +1342,26 @@
   <sheetData>
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1619,10 +1622,10 @@
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="15"/>
-      <c r="X17" s="40" t="s">
+      <c r="X17" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="41"/>
+      <c r="Y17" s="50"/>
       <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1959,12 +1962,12 @@
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="15"/>
-      <c r="AA22" s="42" t="s">
+      <c r="AA22" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="44"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="42"/>
     </row>
     <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2114,7 +2117,7 @@
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="15"/>
-      <c r="X24" s="37" t="s">
+      <c r="X24" s="45" t="s">
         <v>186</v>
       </c>
       <c r="Y24" s="35" t="s">
@@ -2189,7 +2192,7 @@
       </c>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="X25" s="38"/>
+      <c r="X25" s="47"/>
       <c r="Y25" s="36" t="s">
         <v>14</v>
       </c>
@@ -2267,10 +2270,12 @@
       <c r="S26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="15"/>
+      <c r="T26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U26" s="13"/>
       <c r="V26" s="14"/>
-      <c r="X26" s="39"/>
+      <c r="X26" s="46"/>
       <c r="Y26" s="35" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2348,7 @@
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="X27" s="45" t="s">
+      <c r="X27" s="43" t="s">
         <v>192</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -2418,7 +2423,7 @@
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="X28" s="46"/>
+      <c r="X28" s="44"/>
       <c r="Y28" s="35" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2504,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="X29" s="37" t="s">
+      <c r="X29" s="45" t="s">
         <v>193</v>
       </c>
       <c r="Y29" s="36" t="s">
@@ -2574,7 +2579,7 @@
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="X30" s="39"/>
+      <c r="X30" s="46"/>
       <c r="Y30" s="35" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +2745,7 @@
       </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="X32" s="37" t="s">
+      <c r="X32" s="45" t="s">
         <v>196</v>
       </c>
       <c r="Y32" s="35" t="s">
@@ -2815,7 +2820,7 @@
       </c>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="X33" s="38"/>
+      <c r="X33" s="47"/>
       <c r="Y33" s="36" t="s">
         <v>37</v>
       </c>
@@ -2886,7 +2891,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="15"/>
       <c r="V34" s="14"/>
-      <c r="X34" s="38"/>
+      <c r="X34" s="47"/>
       <c r="Y34" s="35" t="s">
         <v>28</v>
       </c>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="X35" s="38"/>
+      <c r="X35" s="47"/>
       <c r="Y35" s="36" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3057,7 @@
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="X36" s="39"/>
+      <c r="X36" s="46"/>
       <c r="Y36" s="35" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +3138,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="15"/>
       <c r="V37" s="14"/>
-      <c r="X37" s="45" t="s">
+      <c r="X37" s="43" t="s">
         <v>197</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -3216,7 +3221,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="15"/>
       <c r="V38" s="14"/>
-      <c r="X38" s="49"/>
+      <c r="X38" s="48"/>
       <c r="Y38" s="35" t="s">
         <v>34</v>
       </c>
@@ -3297,10 +3302,10 @@
       <c r="T39" s="2"/>
       <c r="U39" s="15"/>
       <c r="V39" s="14"/>
-      <c r="X39" s="37" t="s">
+      <c r="X39" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="47" t="s">
+      <c r="Y39" s="37" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="2"/>
@@ -3370,8 +3375,8 @@
       <c r="T40" s="2"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="48" t="s">
+      <c r="X40" s="47"/>
+      <c r="Y40" s="38" t="s">
         <v>23</v>
       </c>
       <c r="Z40" s="1">
@@ -3453,8 +3458,8 @@
       </c>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="47" t="s">
+      <c r="X41" s="47"/>
+      <c r="Y41" s="37" t="s">
         <v>9</v>
       </c>
       <c r="Z41" s="2">
@@ -3536,8 +3541,8 @@
       </c>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="48" t="s">
+      <c r="X42" s="47"/>
+      <c r="Y42" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Z42" s="2" t="s">
@@ -3619,8 +3624,8 @@
       </c>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="47" t="s">
+      <c r="X43" s="46"/>
+      <c r="Y43" s="37" t="s">
         <v>0</v>
       </c>
       <c r="Z43" s="2">
@@ -3777,10 +3782,10 @@
       </c>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="X45" s="37" t="s">
+      <c r="X45" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="Y45" s="50" t="s">
+      <c r="Y45" s="39" t="s">
         <v>33</v>
       </c>
       <c r="Z45" s="1">
@@ -3862,7 +3867,7 @@
       </c>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
-      <c r="X46" s="38"/>
+      <c r="X46" s="47"/>
       <c r="Y46" s="35" t="s">
         <v>25</v>
       </c>
@@ -3943,8 +3948,8 @@
       <c r="T47" s="2"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="50" t="s">
+      <c r="X47" s="46"/>
+      <c r="Y47" s="39" t="s">
         <v>10</v>
       </c>
       <c r="Z47" s="34">
@@ -4417,16 +4422,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X45:X47"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X39:X43"/>
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="X27:X28"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="X32:X36"/>
     <mergeCell ref="X37:X38"/>
-    <mergeCell ref="X45:X47"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="X39:X43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E4D2F-A953-294A-ABF4-2E0A7B243A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AC529-99A2-D848-8FCE-6B9D5EB20FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="4600" yWindow="620" windowWidth="25560" windowHeight="26840" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="204">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -633,22 +633,10 @@
     <t>uploaded</t>
   </si>
   <si>
-    <t>until 2013-03-09 23:45 (2013-5749) to 2013-12-31</t>
-  </si>
-  <si>
-    <t>until 2012-03-25 08:30 (2012-8104) to 2012-12-31</t>
-  </si>
-  <si>
     <t>until 2017-08-13 04:00 (2017-16116) to 2018-08-14</t>
   </si>
   <si>
-    <t>until 2017-03-21 06:30 (2017-4308) to 2018-08-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">uploaded </t>
-  </si>
-  <si>
-    <t>until 2017-08-14 12:45 (2017-15531) to 2017-12-31</t>
   </si>
 </sst>
 </file>
@@ -1315,9 +1303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C31CC8C-ADE8-444D-83D6-A7A39ED7E344}">
   <dimension ref="A12:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1478,7 @@
         <v>56</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
@@ -1687,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1756,9 +1744,9 @@
         <v>72</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U19" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="U19" s="14"/>
       <c r="V19" s="15"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="2" t="s">
@@ -1958,9 +1946,9 @@
         <v>85</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="U22" s="13"/>
+        <v>201</v>
+      </c>
+      <c r="U22" s="14"/>
       <c r="V22" s="15"/>
       <c r="AA22" s="40" t="s">
         <v>187</v>
@@ -2113,9 +2101,9 @@
         <v>120</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="U24" s="13"/>
+        <v>201</v>
+      </c>
+      <c r="U24" s="14"/>
       <c r="V24" s="15"/>
       <c r="X24" s="45" t="s">
         <v>186</v>
@@ -2271,9 +2259,9 @@
         <v>56</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="U26" s="13"/>
+        <v>201</v>
+      </c>
+      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="35" t="s">
@@ -2501,7 +2489,9 @@
       <c r="S29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="X29" s="45" t="s">
@@ -3135,7 +3125,9 @@
       <c r="S37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14"/>
       <c r="X37" s="43" t="s">
@@ -3218,7 +3210,9 @@
       <c r="S38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T38" s="2"/>
+      <c r="T38" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14"/>
       <c r="X38" s="48"/>
@@ -3299,7 +3293,9 @@
       <c r="S39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="2"/>
+      <c r="T39" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U39" s="15"/>
       <c r="V39" s="14"/>
       <c r="X39" s="45" t="s">
@@ -3372,7 +3368,9 @@
       <c r="S40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T40" s="2"/>
+      <c r="T40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
       <c r="X40" s="47"/>
@@ -3945,7 +3943,9 @@
       <c r="S47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="T47" s="2"/>
+      <c r="T47" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
       <c r="X47" s="46"/>
@@ -4026,7 +4026,9 @@
       <c r="S48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T48" s="2"/>
+      <c r="T48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U48" s="15"/>
       <c r="V48" s="14"/>
       <c r="X48" s="22"/>
@@ -4090,7 +4092,9 @@
       <c r="S49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T49" s="2"/>
+      <c r="T49" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U49" s="15"/>
       <c r="V49" s="14"/>
       <c r="X49" s="22"/>
@@ -4154,7 +4158,9 @@
       <c r="S50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T50" s="2"/>
+      <c r="T50" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U50" s="15"/>
       <c r="V50" s="14"/>
       <c r="X50" s="22"/>
@@ -4218,7 +4224,9 @@
       <c r="S51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T51" s="2"/>
+      <c r="T51" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14"/>
     </row>
@@ -4280,7 +4288,9 @@
       <c r="S52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T52" s="2"/>
+      <c r="T52" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14"/>
     </row>
@@ -4342,7 +4352,9 @@
       <c r="S53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T53" s="2"/>
+      <c r="T53" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U53" s="15"/>
       <c r="V53" s="14"/>
     </row>
@@ -4404,7 +4416,9 @@
       <c r="S54" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="T54" s="2"/>
+      <c r="T54" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
     </row>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AC529-99A2-D848-8FCE-6B9D5EB20FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A369F-9463-704B-99A9-36DA2F9560BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="620" windowWidth="25560" windowHeight="26840" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="4600" yWindow="460" windowWidth="25560" windowHeight="26840" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>uploaded</t>
-  </si>
-  <si>
-    <t>until 2017-08-13 04:00 (2017-16116) to 2018-08-14</t>
   </si>
   <si>
     <t xml:space="preserve">uploaded </t>
@@ -866,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -892,7 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1304,8 +1300,8 @@
   <dimension ref="A12:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T39" sqref="T39"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,26 +1326,26 @@
   <sheetData>
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1444,7 +1440,7 @@
       <c r="H15" s="6">
         <v>59</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="6">
@@ -1478,13 +1474,13 @@
         <v>56</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5">
@@ -1544,8 +1540,8 @@
       <c r="T16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="15"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1608,13 +1604,13 @@
       <c r="T17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="15"/>
-      <c r="X17" s="49" t="s">
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="X17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="23"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1675,15 +1671,15 @@
         <v>56</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+        <v>202</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1740,19 +1736,19 @@
       <c r="R19" s="6">
         <v>12</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="17" t="s">
         <v>72</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1812,16 +1808,16 @@
       <c r="S20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" s="24"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1884,8 +1880,8 @@
       <c r="T21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:30" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1948,14 +1944,14 @@
       <c r="T22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
-      <c r="AA22" s="40" t="s">
+      <c r="U22" s="13"/>
+      <c r="V22" s="14"/>
+      <c r="AA22" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="42"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="41"/>
     </row>
     <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2018,27 +2014,27 @@
       <c r="T23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="X23" s="21" t="s">
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="X23" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y23" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="Z23" s="21" t="s">
+      <c r="Z23" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AB23" s="26" t="s">
+      <c r="AB23" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="AC23" s="27" t="s">
+      <c r="AC23" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AD23" s="28" t="s">
+      <c r="AD23" s="27" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2103,18 +2099,18 @@
       <c r="T24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="14"/>
-      <c r="V24" s="15"/>
-      <c r="X24" s="45" t="s">
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="X24" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="35" t="s">
+      <c r="Y24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="31"/>
+      <c r="AA24" s="30"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="31"/>
+      <c r="AC24" s="30"/>
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2178,22 +2174,22 @@
       <c r="T25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="36" t="s">
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="35" t="s">
         <v>14</v>
       </c>
       <c r="Z25" s="1">
         <v>23.46</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AA25" s="23">
         <v>24.4</v>
       </c>
       <c r="AB25" s="1">
         <v>27</v>
       </c>
-      <c r="AC25" s="24">
+      <c r="AC25" s="23">
         <v>27.3</v>
       </c>
       <c r="AD25" s="1">
@@ -2261,16 +2257,16 @@
       <c r="T26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="35" t="s">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="31"/>
+      <c r="AA26" s="30"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="31"/>
+      <c r="AC26" s="30"/>
       <c r="AD26" s="2"/>
     </row>
     <row r="27" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2334,18 +2330,18 @@
       <c r="T27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="X27" s="43" t="s">
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="X27" s="42" t="s">
         <v>192</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="31"/>
+      <c r="AA27" s="30"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="31"/>
+      <c r="AC27" s="30"/>
       <c r="AD27" s="2"/>
     </row>
     <row r="28" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2409,25 +2405,25 @@
       <c r="T28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="35" t="s">
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="33">
+      <c r="Z28" s="32">
         <v>1.73</v>
       </c>
-      <c r="AA28" s="29">
+      <c r="AA28" s="28">
         <v>1</v>
       </c>
-      <c r="AB28" s="33">
+      <c r="AB28" s="32">
         <v>3</v>
       </c>
-      <c r="AC28" s="29">
+      <c r="AC28" s="28">
         <v>3.3</v>
       </c>
-      <c r="AD28" s="33">
+      <c r="AD28" s="32">
         <v>4</v>
       </c>
     </row>
@@ -2492,18 +2488,18 @@
       <c r="T29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="X29" s="45" t="s">
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="X29" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="Y29" s="36" t="s">
+      <c r="Y29" s="35" t="s">
         <v>32</v>
       </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="31"/>
+      <c r="AA29" s="30"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="31"/>
+      <c r="AC29" s="30"/>
       <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2567,22 +2563,22 @@
       <c r="T30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="35" t="s">
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="Z30" s="1">
         <v>239.67</v>
       </c>
-      <c r="AA30" s="24">
+      <c r="AA30" s="23">
         <v>240</v>
       </c>
       <c r="AB30" s="1">
         <v>247</v>
       </c>
-      <c r="AC30" s="24">
+      <c r="AC30" s="23">
         <v>247.69</v>
       </c>
       <c r="AD30" s="1">
@@ -2648,8 +2644,8 @@
         <v>131</v>
       </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="14"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
       <c r="X31" s="3" t="s">
         <v>195</v>
       </c>
@@ -2659,13 +2655,13 @@
       <c r="Z31" s="2">
         <v>7.92</v>
       </c>
-      <c r="AA31" s="31">
+      <c r="AA31" s="30">
         <v>8.68</v>
       </c>
       <c r="AB31" s="2">
         <v>9</v>
       </c>
-      <c r="AC31" s="31">
+      <c r="AC31" s="30">
         <v>9.0399999999999991</v>
       </c>
       <c r="AD31" s="2">
@@ -2733,18 +2729,18 @@
       <c r="T32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="X32" s="45" t="s">
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="X32" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="Y32" s="35" t="s">
+      <c r="Y32" s="34" t="s">
         <v>7</v>
       </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="24"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="24"/>
+      <c r="AC32" s="23"/>
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2808,16 +2804,16 @@
       <c r="T33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="36" t="s">
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="35" t="s">
         <v>37</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="31"/>
+      <c r="AA33" s="30"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="31"/>
+      <c r="AC33" s="30"/>
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2878,23 +2874,25 @@
       <c r="S34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T34" s="2"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="14"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="35" t="s">
+      <c r="T34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="34" t="s">
         <v>28</v>
       </c>
       <c r="Z34" s="1">
         <v>28.59</v>
       </c>
-      <c r="AA34" s="24">
+      <c r="AA34" s="23">
         <v>30.8</v>
       </c>
       <c r="AB34" s="1">
         <v>35</v>
       </c>
-      <c r="AC34" s="24">
+      <c r="AC34" s="23">
         <v>35.299999999999997</v>
       </c>
       <c r="AD34" s="1">
@@ -2962,22 +2960,22 @@
       <c r="T35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="36" t="s">
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="35" t="s">
         <v>13</v>
       </c>
       <c r="Z35" s="2">
         <v>63.99</v>
       </c>
-      <c r="AA35" s="31">
+      <c r="AA35" s="30">
         <v>65</v>
       </c>
       <c r="AB35" s="2">
         <v>66.5</v>
       </c>
-      <c r="AC35" s="31">
+      <c r="AC35" s="30">
         <v>67.150000000000006</v>
       </c>
       <c r="AD35" s="2">
@@ -3045,22 +3043,22 @@
       <c r="T36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="35" t="s">
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="34" t="s">
         <v>12</v>
       </c>
       <c r="Z36" s="1">
         <v>10.92</v>
       </c>
-      <c r="AA36" s="24">
+      <c r="AA36" s="23">
         <v>10</v>
       </c>
       <c r="AB36" s="1">
         <v>13</v>
       </c>
-      <c r="AC36" s="24">
+      <c r="AC36" s="23">
         <v>13.75</v>
       </c>
       <c r="AD36" s="1">
@@ -3092,7 +3090,7 @@
       <c r="H37" s="6">
         <v>59</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J37" s="6">
@@ -3128,9 +3126,9 @@
       <c r="T37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="14"/>
-      <c r="X37" s="43" t="s">
+      <c r="U37" s="14"/>
+      <c r="V37" s="13"/>
+      <c r="X37" s="42" t="s">
         <v>197</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -3139,13 +3137,13 @@
       <c r="Z37" s="2">
         <v>52.17</v>
       </c>
-      <c r="AA37" s="31">
+      <c r="AA37" s="30">
         <v>52</v>
       </c>
       <c r="AB37" s="2">
         <v>54</v>
       </c>
-      <c r="AC37" s="31">
+      <c r="AC37" s="30">
         <v>54.24</v>
       </c>
       <c r="AD37" s="2">
@@ -3213,22 +3211,22 @@
       <c r="T38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U38" s="15"/>
-      <c r="V38" s="14"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="35" t="s">
+      <c r="U38" s="14"/>
+      <c r="V38" s="13"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="34" t="s">
         <v>34</v>
       </c>
       <c r="Z38" s="1">
         <v>31.62</v>
       </c>
-      <c r="AA38" s="24">
+      <c r="AA38" s="23">
         <v>32</v>
       </c>
       <c r="AB38" s="1">
         <v>35</v>
       </c>
-      <c r="AC38" s="24">
+      <c r="AC38" s="23">
         <v>35.65</v>
       </c>
       <c r="AD38" s="1">
@@ -3296,18 +3294,18 @@
       <c r="T39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="14"/>
-      <c r="X39" s="45" t="s">
+      <c r="U39" s="14"/>
+      <c r="V39" s="13"/>
+      <c r="X39" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="37" t="s">
+      <c r="Y39" s="36" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="31"/>
+      <c r="AA39" s="30"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="31"/>
+      <c r="AC39" s="30"/>
       <c r="AD39" s="2"/>
     </row>
     <row r="40" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3335,7 +3333,7 @@
       <c r="H40" s="6">
         <v>56</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="18" t="s">
         <v>113</v>
       </c>
       <c r="J40" s="6">
@@ -3371,22 +3369,22 @@
       <c r="T40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="38" t="s">
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="37" t="s">
         <v>23</v>
       </c>
       <c r="Z40" s="1">
         <v>11.28</v>
       </c>
-      <c r="AA40" s="24">
+      <c r="AA40" s="23">
         <v>13</v>
       </c>
       <c r="AB40" s="1">
         <v>15</v>
       </c>
-      <c r="AC40" s="24">
+      <c r="AC40" s="23">
         <v>15.24</v>
       </c>
       <c r="AD40" s="1">
@@ -3454,22 +3452,22 @@
       <c r="T41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="37" t="s">
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Z41" s="2">
         <v>33.4</v>
       </c>
-      <c r="AA41" s="31">
+      <c r="AA41" s="30">
         <v>29</v>
       </c>
       <c r="AB41" s="2">
         <v>35</v>
       </c>
-      <c r="AC41" s="31">
+      <c r="AC41" s="30">
         <v>35.299999999999997</v>
       </c>
       <c r="AD41" s="2">
@@ -3537,22 +3535,22 @@
       <c r="T42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="38" t="s">
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="37" t="s">
         <v>39</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA42" s="16">
+      <c r="AA42" s="15">
         <v>17.399999999999999</v>
       </c>
       <c r="AB42" s="2">
         <v>19.5</v>
       </c>
-      <c r="AC42" s="16">
+      <c r="AC42" s="15">
         <v>20.25</v>
       </c>
       <c r="AD42" s="2">
@@ -3620,25 +3618,25 @@
       <c r="T43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="37" t="s">
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="36" t="s">
         <v>0</v>
       </c>
       <c r="Z43" s="2">
         <v>20.9</v>
       </c>
-      <c r="AA43" s="16">
+      <c r="AA43" s="15">
         <v>23.5</v>
       </c>
-      <c r="AB43" s="16">
+      <c r="AB43" s="15">
         <v>24</v>
       </c>
-      <c r="AC43" s="16">
+      <c r="AC43" s="15">
         <v>24.7</v>
       </c>
-      <c r="AD43" s="16">
+      <c r="AD43" s="15">
         <v>25.4</v>
       </c>
     </row>
@@ -3703,18 +3701,18 @@
       <c r="T44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="X44" s="20" t="s">
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="X44" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="Y44" s="35" t="s">
+      <c r="Y44" s="34" t="s">
         <v>22</v>
       </c>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="31"/>
+      <c r="AA44" s="30"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="31"/>
+      <c r="AC44" s="30"/>
       <c r="AD44" s="2"/>
     </row>
     <row r="45" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3778,24 +3776,24 @@
       <c r="T45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="X45" s="45" t="s">
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="X45" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="Y45" s="39" t="s">
+      <c r="Y45" s="38" t="s">
         <v>33</v>
       </c>
       <c r="Z45" s="1">
         <v>4.87</v>
       </c>
-      <c r="AA45" s="24">
+      <c r="AA45" s="23">
         <v>5</v>
       </c>
       <c r="AB45" s="1">
         <v>6.5</v>
       </c>
-      <c r="AC45" s="24">
+      <c r="AC45" s="23">
         <v>6.65</v>
       </c>
       <c r="AD45" s="1">
@@ -3863,22 +3861,22 @@
       <c r="T46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="35" t="s">
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Z46" s="2">
         <v>17.78</v>
       </c>
-      <c r="AA46" s="31">
+      <c r="AA46" s="30">
         <v>18</v>
       </c>
       <c r="AB46" s="2">
         <v>19.8</v>
       </c>
-      <c r="AC46" s="31">
+      <c r="AC46" s="30">
         <v>20.7</v>
       </c>
       <c r="AD46" s="2">
@@ -3946,25 +3944,25 @@
       <c r="T47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="39" t="s">
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Z47" s="34">
+      <c r="Z47" s="33">
         <v>8.73</v>
       </c>
-      <c r="AA47" s="30">
+      <c r="AA47" s="29">
         <v>8.5</v>
       </c>
-      <c r="AB47" s="34">
+      <c r="AB47" s="33">
         <v>11</v>
       </c>
-      <c r="AC47" s="30">
+      <c r="AC47" s="29">
         <v>11.9</v>
       </c>
-      <c r="AD47" s="34">
+      <c r="AD47" s="33">
         <v>12.8</v>
       </c>
     </row>
@@ -4029,10 +4027,10 @@
       <c r="T48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="14"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="13"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
     </row>
     <row r="49" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -4095,10 +4093,10 @@
       <c r="T49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="14"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="13"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
     </row>
     <row r="50" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4161,10 +4159,10 @@
       <c r="T50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U50" s="15"/>
-      <c r="V50" s="14"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="13"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
     </row>
     <row r="51" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4227,8 +4225,8 @@
       <c r="T51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U51" s="15"/>
-      <c r="V51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4291,8 +4289,8 @@
       <c r="T52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="15"/>
-      <c r="V52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -4355,8 +4353,8 @@
       <c r="T53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U53" s="15"/>
-      <c r="V53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4419,20 +4417,20 @@
       <c r="T54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z59" s="24"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z60" s="24"/>
+      <c r="Z60" s="23"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z61" s="24"/>
+      <c r="Z61" s="23"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z62" s="24"/>
+      <c r="Z62" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A369F-9463-704B-99A9-36DA2F9560BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CBC306-1B7D-4E4D-A9D6-BC77BEB5C9A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="460" windowWidth="25560" windowHeight="26840" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="25640" yWindow="0" windowWidth="25560" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="205">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -634,13 +634,19 @@
   </si>
   <si>
     <t xml:space="preserve">uploaded </t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,6 +671,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -741,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -856,6 +876,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,7 +903,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -947,6 +987,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,23 +1017,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1297,210 +1367,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C31CC8C-ADE8-444D-83D6-A7A39ED7E344}">
-  <dimension ref="A12:AD62"/>
+  <dimension ref="A12:AF62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U15" sqref="U15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="17" max="17" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="46" customWidth="1"/>
-    <col min="21" max="22" width="15" customWidth="1"/>
-    <col min="24" max="25" width="33.33203125" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="46" customWidth="1"/>
+    <col min="23" max="24" width="15" customWidth="1"/>
+    <col min="26" max="27" width="33.33203125" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+    <row r="12" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="54">
         <v>2010</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2011</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="11">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="11">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="J14" s="11">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N14" s="11">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="P14" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="R14" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="11">
+        <v>2018</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="5">
+    <row r="15" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="58">
+        <v>4.9776389999999999</v>
+      </c>
+      <c r="C15" s="60">
+        <v>100.779222</v>
+      </c>
+      <c r="D15" s="55">
         <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="6">
-        <v>59</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
+      <c r="F15" s="5">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="6">
         <v>59</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="6">
+        <v>59</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>50</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="6">
-        <v>56</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6">
+        <v>56</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <v>58</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="6">
+      <c r="R15" s="6">
         <v>55</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="5">
+      <c r="T15" s="5">
         <v>37</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="55">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
@@ -1537,241 +1615,257 @@
       <c r="S16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
-        <v>56</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="58">
+        <v>4.8501940000000001</v>
+      </c>
+      <c r="C17" s="58">
+        <v>100.783528</v>
+      </c>
+      <c r="D17" s="56">
+        <v>56</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="5">
-        <v>60</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="F17" s="5">
         <v>60</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
+        <v>60</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="6">
         <v>51</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="6">
         <v>46</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>53</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="5">
-        <v>60</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="6">
         <v>47</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="5">
+      <c r="T17" s="5">
         <v>37</v>
       </c>
-      <c r="S17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="X17" s="48" t="s">
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+      <c r="Z17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="22"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="22"/>
     </row>
-    <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>60</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6">
-        <v>57</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="60">
+        <v>5.0183</v>
+      </c>
+      <c r="C18" s="60">
+        <v>100.652778</v>
+      </c>
+      <c r="D18" s="55">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6">
+        <v>57</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="5">
-        <v>60</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H18" s="5">
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
+        <v>60</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="6">
         <v>50</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="6">
+      <c r="N18" s="6">
         <v>58</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="5">
-        <v>60</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="6">
         <v>55</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="5">
+      <c r="T18" s="5">
         <v>37</v>
       </c>
-      <c r="S18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="2" t="s">
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="23"/>
+      <c r="AB18" s="23"/>
     </row>
-    <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
-        <v>56</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56">
+        <v>56</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6">
+      <c r="F19" s="6">
         <v>47</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="6">
+      <c r="H19" s="6">
         <v>59</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <v>52</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="6">
+      <c r="L19" s="6">
         <v>50</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="5">
-        <v>60</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N19" s="5">
         <v>60</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="6">
         <v>50</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="6">
+      <c r="T19" s="6">
         <v>12</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="U19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="2" t="s">
+      <c r="W19" s="13"/>
+      <c r="X19" s="14"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z19" s="23"/>
+      <c r="AB19" s="23"/>
     </row>
-    <row r="20" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56">
         <v>51</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="6">
+      <c r="F20" s="6">
         <v>16</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -1808,28 +1902,34 @@
       <c r="S20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="31" t="s">
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="2" t="s">
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" s="23"/>
+      <c r="AB20" s="23"/>
     </row>
-    <row r="21" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="60">
+        <v>5.1636110000000004</v>
+      </c>
+      <c r="C21" s="60">
+        <v>100.7675</v>
+      </c>
+      <c r="D21" s="57">
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1853,117 +1953,129 @@
       <c r="K21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="6">
         <v>59</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>51</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="6">
+      <c r="R21" s="6">
         <v>54</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="S21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="6">
+      <c r="T21" s="6">
         <v>21</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="U21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="1:30" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:32" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="B22" s="60">
+        <v>4.4342779999999999</v>
+      </c>
+      <c r="C22" s="60">
+        <v>101.190831</v>
+      </c>
+      <c r="D22" s="55">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="6">
         <v>55</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="6">
+      <c r="H22" s="6">
         <v>34</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="6">
+      <c r="J22" s="6">
         <v>54</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="6">
+      <c r="L22" s="6">
         <v>45</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L22" s="5">
-        <v>60</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
+        <v>60</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="6">
         <v>59</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="Q22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="6">
+      <c r="R22" s="6">
         <v>51</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="S22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R22" s="6">
+      <c r="T22" s="6">
         <v>36</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="U22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="AA22" s="39" t="s">
+      <c r="W22" s="13"/>
+      <c r="X22" s="14"/>
+      <c r="AC22" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="41"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="46"/>
     </row>
-    <row r="23" spans="1:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:32" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
-        <v>60</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" s="60">
+        <v>4.8193999999999999</v>
+      </c>
+      <c r="C23" s="60">
+        <v>100.965278</v>
+      </c>
+      <c r="D23" s="55">
         <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1981,149 +2093,161 @@
       <c r="I23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
+        <v>60</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="6">
         <v>51</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="5">
-        <v>60</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
+        <v>60</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="6">
         <v>59</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="6">
+      <c r="R23" s="6">
         <v>55</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="S23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="6">
         <v>36</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="X23" s="20" t="s">
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Z23" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="Y23" s="20" t="s">
+      <c r="AA23" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="AB23" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AA23" s="24" t="s">
+      <c r="AC23" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AD23" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="AC23" s="26" t="s">
+      <c r="AE23" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AD23" s="27" t="s">
+      <c r="AF23" s="27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="58">
+        <v>5.6041670000000003</v>
+      </c>
+      <c r="C24" s="60">
+        <v>101.080556</v>
+      </c>
+      <c r="D24" s="56">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="6">
+      <c r="F24" s="6">
         <v>47</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="6">
+      <c r="H24" s="6">
         <v>58</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="5">
-        <v>60</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
+        <v>60</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="6">
         <v>45</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="5">
-        <v>60</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
+        <v>60</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="6">
         <v>52</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="6">
+      <c r="R24" s="6">
         <v>16</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="S24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="6">
+      <c r="T24" s="6">
         <v>28</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="U24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="X24" s="44" t="s">
+      <c r="W24" s="13"/>
+      <c r="X24" s="14"/>
+      <c r="Z24" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="34" t="s">
+      <c r="AA24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="30"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="2"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" s="60">
+        <v>4.1795999999999998</v>
+      </c>
+      <c r="C25" s="60">
+        <v>100.929925</v>
+      </c>
+      <c r="D25" s="55">
         <v>60</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -2141,77 +2265,83 @@
       <c r="I25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
+        <v>60</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="6">
         <v>48</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="5">
-        <v>60</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N25" s="5">
         <v>60</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="6">
         <v>55</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="6">
+      <c r="T25" s="6">
         <v>36</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="U25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="35" t="s">
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AB25" s="1">
         <v>23.46</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AC25" s="23">
         <v>24.4</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AD25" s="1">
         <v>27</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AE25" s="23">
         <v>27.3</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AF25" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
-        <v>56</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="60">
+        <v>4.9375</v>
+      </c>
+      <c r="C26" s="58">
+        <v>101.102778</v>
+      </c>
+      <c r="D26" s="56">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="5">
-        <v>60</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="5">
         <v>60</v>
       </c>
@@ -2224,62 +2354,68 @@
       <c r="I26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
+        <v>60</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="6">
         <v>49</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="5">
-        <v>60</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N26" s="5">
         <v>60</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="6">
         <v>55</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="5">
+      <c r="T26" s="5">
         <v>37</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="34" t="s">
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="30"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="2"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B27" s="60">
+        <v>5.1497219999999997</v>
+      </c>
+      <c r="C27" s="60">
+        <v>100.88500000000001</v>
+      </c>
+      <c r="D27" s="57">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -2297,64 +2433,70 @@
       <c r="I27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="6">
         <v>20</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L27" s="5">
-        <v>60</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
+        <v>60</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="6">
         <v>49</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="Q27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="6">
+      <c r="R27" s="6">
         <v>19</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="S27" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R27" s="6">
+      <c r="T27" s="6">
         <v>3</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="U27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="X27" s="42" t="s">
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Z27" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="30"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="2"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="60">
+        <v>5.0866660000000001</v>
+      </c>
+      <c r="C28" s="60">
+        <v>100.859722</v>
+      </c>
+      <c r="D28" s="57">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2372,72 +2514,78 @@
       <c r="I28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="6">
         <v>19</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="6">
-        <v>57</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6">
+        <v>57</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="N28" s="6">
-        <v>44</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="P28" s="6">
         <v>44</v>
       </c>
       <c r="Q28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R28" s="6">
+        <v>44</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="R28" s="5">
+      <c r="T28" s="5">
         <v>37</v>
       </c>
-      <c r="S28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="34" t="s">
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="32">
+      <c r="AB28" s="32">
         <v>1.73</v>
       </c>
-      <c r="AA28" s="28">
+      <c r="AC28" s="28">
         <v>1</v>
       </c>
-      <c r="AB28" s="32">
+      <c r="AD28" s="32">
         <v>3</v>
       </c>
-      <c r="AC28" s="28">
+      <c r="AE28" s="28">
         <v>3.3</v>
       </c>
-      <c r="AD28" s="32">
+      <c r="AF28" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="B29" s="60">
+        <v>4.3858470000000001</v>
+      </c>
+      <c r="C29" s="58">
+        <v>101.21458</v>
+      </c>
+      <c r="D29" s="55">
         <v>60</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2449,70 +2597,76 @@
       <c r="G29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
+        <v>60</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="6">
         <v>55</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J29" s="6">
+      <c r="L29" s="6">
         <v>42</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L29" s="6">
+      <c r="N29" s="6">
         <v>58</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="6">
-        <v>57</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="P29" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="6">
+      <c r="R29" s="6">
         <v>52</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="S29" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R29" s="5">
+      <c r="T29" s="5">
         <v>37</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="X29" s="44" t="s">
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Z29" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="Y29" s="35" t="s">
+      <c r="AA29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="30"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="2"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="B30" s="60">
+        <v>4.9252770000000003</v>
+      </c>
+      <c r="C30" s="60">
+        <v>100.82805500000001</v>
+      </c>
+      <c r="D30" s="57">
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -2530,72 +2684,74 @@
       <c r="I30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="6">
         <v>19</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L30" s="5">
-        <v>60</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="6">
-        <v>54</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>178</v>
+      <c r="N30" s="5">
+        <v>60</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="P30" s="6">
         <v>54</v>
       </c>
       <c r="Q30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R30" s="6">
+        <v>54</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R30" s="5">
+      <c r="T30" s="5">
         <v>37</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="34" t="s">
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AB30" s="1">
         <v>239.67</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AC30" s="23">
         <v>240</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AD30" s="1">
         <v>247</v>
       </c>
-      <c r="AC30" s="23">
+      <c r="AE30" s="23">
         <v>247.69</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AF30" s="1">
         <v>248.38</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="57">
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2613,72 +2769,78 @@
       <c r="I31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="6">
         <v>17</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L31" s="6">
+      <c r="N31" s="6">
         <v>59</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="6">
-        <v>56</v>
-      </c>
-      <c r="O31" s="6" t="s">
+      <c r="P31" s="6">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="P31" s="6">
+      <c r="R31" s="6">
         <v>48</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="S31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="R31" s="6">
+      <c r="T31" s="6">
         <v>30</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="U31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="X31" s="3" t="s">
+      <c r="V31" s="2"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Z31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AB31" s="2">
         <v>7.92</v>
       </c>
-      <c r="AA31" s="30">
+      <c r="AC31" s="30">
         <v>8.68</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AD31" s="2">
         <v>9</v>
       </c>
-      <c r="AC31" s="30">
+      <c r="AE31" s="30">
         <v>9.0399999999999991</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AF31" s="2">
         <v>9.14</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B32" s="60">
+        <v>5.275188</v>
+      </c>
+      <c r="C32" s="60">
+        <v>100.780361</v>
+      </c>
+      <c r="D32" s="57">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2696,137 +2858,149 @@
       <c r="I32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="6">
         <v>13</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="6">
+      <c r="N32" s="6">
         <v>59</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N32" s="6">
-        <v>57</v>
-      </c>
-      <c r="O32" s="6" t="s">
+      <c r="P32" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="P32" s="6">
+      <c r="R32" s="6">
         <v>49</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="S32" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R32" s="5">
+      <c r="T32" s="5">
         <v>37</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T32" s="2" t="s">
+      <c r="U32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="X32" s="44" t="s">
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Z32" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="Y32" s="34" t="s">
+      <c r="AA32" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="23"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="23"/>
       <c r="AD32" s="1"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="B33" s="60">
+        <v>5.4166670000000003</v>
+      </c>
+      <c r="C33" s="60">
+        <v>101.154167</v>
+      </c>
+      <c r="D33" s="57">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="6">
         <v>47</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="5">
-        <v>60</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H33" s="5">
         <v>60</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
+        <v>60</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="6">
         <v>49</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="6">
+      <c r="N33" s="6">
         <v>59</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N33" s="5">
-        <v>60</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="6">
         <v>55</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R33" s="6">
+      <c r="T33" s="6">
         <v>36</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="U33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="35" t="s">
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="30"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="2"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="5">
-        <v>60</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="B34" s="60">
+        <v>4.5780399999999997</v>
+      </c>
+      <c r="C34" s="60">
+        <v>101.06891</v>
+      </c>
+      <c r="D34" s="55">
         <v>60</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2844,72 +3018,78 @@
       <c r="I34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
+        <v>60</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="6">
         <v>50</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="M34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L34" s="5">
-        <v>60</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N34" s="5">
         <v>60</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="6">
         <v>55</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="6">
+      <c r="T34" s="6">
         <v>36</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="34" t="s">
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AB34" s="1">
         <v>28.59</v>
       </c>
-      <c r="AA34" s="23">
+      <c r="AC34" s="23">
         <v>30.8</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AD34" s="1">
         <v>35</v>
       </c>
-      <c r="AC34" s="23">
+      <c r="AE34" s="23">
         <v>35.299999999999997</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AF34" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="B35" s="60">
+        <v>5.2472219999999998</v>
+      </c>
+      <c r="C35" s="60">
+        <v>100.729722</v>
+      </c>
+      <c r="D35" s="57">
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -2927,72 +3107,78 @@
       <c r="I35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="6">
         <v>18</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="M35" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="L35" s="6">
-        <v>59</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="N35" s="6">
         <v>59</v>
       </c>
       <c r="O35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="6">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="P35" s="6">
+      <c r="R35" s="6">
         <v>49</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R35" s="6">
+      <c r="T35" s="6">
         <v>36</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="U35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="35" t="s">
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AB35" s="2">
         <v>63.99</v>
       </c>
-      <c r="AA35" s="30">
+      <c r="AC35" s="30">
         <v>65</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AD35" s="2">
         <v>66.5</v>
       </c>
-      <c r="AC35" s="30">
+      <c r="AE35" s="30">
         <v>67.150000000000006</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AF35" s="2">
         <v>67.8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="B36" s="60">
+        <v>5.2588879999999998</v>
+      </c>
+      <c r="C36" s="60">
+        <v>100.831666</v>
+      </c>
+      <c r="D36" s="57">
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -3010,72 +3196,78 @@
       <c r="I36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="6">
         <v>18</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L36" s="6">
+      <c r="N36" s="6">
         <v>59</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N36" s="5">
-        <v>60</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="6">
         <v>55</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R36" s="5">
+      <c r="T36" s="5">
         <v>37</v>
       </c>
-      <c r="S36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T36" s="2" t="s">
+      <c r="U36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="34" t="s">
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AB36" s="1">
         <v>10.92</v>
       </c>
-      <c r="AA36" s="23">
+      <c r="AC36" s="23">
         <v>10</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AD36" s="1">
         <v>13</v>
       </c>
-      <c r="AC36" s="23">
+      <c r="AE36" s="23">
         <v>13.75</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AF36" s="1">
         <v>14.5</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="5">
-        <v>60</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="B37" s="60">
+        <v>4.4722</v>
+      </c>
+      <c r="C37" s="60">
+        <v>100.9046</v>
+      </c>
+      <c r="D37" s="55">
         <v>60</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -3087,80 +3279,86 @@
       <c r="G37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
+        <v>60</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="6">
         <v>59</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="6">
+      <c r="L37" s="6">
         <v>49</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="M37" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L37" s="5">
-        <v>60</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N37" s="5">
         <v>60</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" s="6">
         <v>55</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R37" s="5">
+      <c r="T37" s="5">
         <v>37</v>
       </c>
-      <c r="S37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T37" s="2" t="s">
+      <c r="U37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U37" s="14"/>
-      <c r="V37" s="13"/>
-      <c r="X37" s="42" t="s">
+      <c r="W37" s="14"/>
+      <c r="X37" s="13"/>
+      <c r="Z37" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="Y37" s="3" t="s">
+      <c r="AA37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AB37" s="2">
         <v>52.17</v>
       </c>
-      <c r="AA37" s="30">
+      <c r="AC37" s="30">
         <v>52</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AD37" s="2">
         <v>54</v>
       </c>
-      <c r="AC37" s="30">
+      <c r="AE37" s="30">
         <v>54.24</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AF37" s="2">
         <v>54.8</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="B38" s="60">
+        <v>3.9881579999999999</v>
+      </c>
+      <c r="C38" s="60">
+        <v>100.765469</v>
+      </c>
+      <c r="D38" s="57">
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -3178,72 +3376,78 @@
       <c r="I38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="6">
         <v>18</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L38" s="5">
-        <v>60</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N38" s="5">
         <v>60</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" s="6">
         <v>55</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="S38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R38" s="5">
+      <c r="T38" s="5">
         <v>37</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T38" s="2" t="s">
+      <c r="U38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U38" s="14"/>
-      <c r="V38" s="13"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="34" t="s">
+      <c r="W38" s="14"/>
+      <c r="X38" s="13"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AB38" s="1">
         <v>31.62</v>
       </c>
-      <c r="AA38" s="23">
+      <c r="AC38" s="23">
         <v>32</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AD38" s="1">
         <v>35</v>
       </c>
-      <c r="AC38" s="23">
+      <c r="AE38" s="23">
         <v>35.65</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AF38" s="1">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="5">
-        <v>60</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="B39" s="60">
+        <v>5.0118499999999999</v>
+      </c>
+      <c r="C39" s="60">
+        <v>100.73116</v>
+      </c>
+      <c r="D39" s="55">
         <v>60</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -3261,147 +3465,159 @@
       <c r="I39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
+        <v>60</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="6">
         <v>50</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L39" s="5">
-        <v>60</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N39" s="5">
         <v>60</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="6">
         <v>54</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="S39" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R39" s="5">
+      <c r="T39" s="5">
         <v>37</v>
       </c>
-      <c r="S39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U39" s="14"/>
-      <c r="V39" s="13"/>
-      <c r="X39" s="44" t="s">
+      <c r="W39" s="14"/>
+      <c r="X39" s="13"/>
+      <c r="Z39" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="36" t="s">
+      <c r="AA39" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="30"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="2"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="60">
+        <v>4.2463050000000004</v>
+      </c>
+      <c r="C40" s="58">
+        <v>100.55425</v>
+      </c>
+      <c r="D40" s="56">
         <v>59</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="6">
+      <c r="F40" s="6">
         <v>44</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="5">
-        <v>60</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="6">
-        <v>56</v>
-      </c>
-      <c r="I40" s="18" t="s">
+      <c r="H40" s="5">
+        <v>60</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="6">
+        <v>56</v>
+      </c>
+      <c r="K40" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="6">
+      <c r="L40" s="6">
         <v>50</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="M40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="L40" s="6">
+      <c r="N40" s="6">
         <v>42</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="O40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="N40" s="6">
+      <c r="P40" s="6">
         <v>58</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="P40" s="6">
+      <c r="R40" s="6">
         <v>50</v>
       </c>
-      <c r="Q40" s="6" t="s">
+      <c r="S40" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="R40" s="5">
+      <c r="T40" s="5">
         <v>37</v>
       </c>
-      <c r="S40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T40" s="2" t="s">
+      <c r="U40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="37" t="s">
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AB40" s="1">
         <v>11.28</v>
       </c>
-      <c r="AA40" s="23">
+      <c r="AC40" s="23">
         <v>13</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AD40" s="1">
         <v>15</v>
       </c>
-      <c r="AC40" s="23">
+      <c r="AE40" s="23">
         <v>15.24</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AF40" s="1">
         <v>15.8</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="B41" s="60">
+        <v>5.0463880000000003</v>
+      </c>
+      <c r="C41" s="60">
+        <v>100.59055499999999</v>
+      </c>
+      <c r="D41" s="57">
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -3419,155 +3635,167 @@
       <c r="I41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="6">
         <v>19</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="6">
+      <c r="N41" s="6">
         <v>58</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="O41" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N41" s="6">
+      <c r="P41" s="6">
         <v>59</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="P41" s="6">
+      <c r="R41" s="6">
         <v>54</v>
       </c>
-      <c r="Q41" s="6" t="s">
+      <c r="S41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R41" s="6">
+      <c r="T41" s="6">
         <v>34</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="U41" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="V41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="36" t="s">
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AB41" s="2">
         <v>33.4</v>
       </c>
-      <c r="AA41" s="30">
+      <c r="AC41" s="30">
         <v>29</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AD41" s="2">
         <v>35</v>
       </c>
-      <c r="AC41" s="30">
+      <c r="AE41" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AF41" s="2">
         <v>35.5</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="B42" s="60">
+        <v>5.0666669999999998</v>
+      </c>
+      <c r="C42" s="60">
+        <v>100.53694400000001</v>
+      </c>
+      <c r="D42" s="57">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="6">
         <v>47</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="5">
-        <v>60</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
+        <v>60</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="6">
         <v>43</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="6">
+      <c r="L42" s="6">
         <v>37</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="6">
+      <c r="N42" s="6">
         <v>48</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="O42" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N42" s="6">
+      <c r="P42" s="6">
         <v>46</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="Q42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="P42" s="6">
+      <c r="R42" s="6">
         <v>55</v>
       </c>
-      <c r="Q42" s="6" t="s">
+      <c r="S42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="6">
+      <c r="T42" s="6">
         <v>26</v>
       </c>
-      <c r="S42" s="6" t="s">
+      <c r="U42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="V42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="37" t="s">
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Z42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA42" s="15">
+      <c r="AB42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC42" s="15">
         <v>17.399999999999999</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AD42" s="2">
         <v>19.5</v>
       </c>
-      <c r="AC42" s="15">
+      <c r="AE42" s="15">
         <v>20.25</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AF42" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="5">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="B43" s="60">
+        <v>5.2166670000000002</v>
+      </c>
+      <c r="C43" s="60">
+        <v>100.6833</v>
+      </c>
+      <c r="D43" s="55">
         <v>60</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -3579,78 +3807,84 @@
       <c r="G43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
+        <v>60</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="6">
         <v>53</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J43" s="6">
+      <c r="L43" s="6">
         <v>39</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="5">
-        <v>60</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N43" s="5">
         <v>60</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="6">
         <v>55</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R43" s="6">
+      <c r="T43" s="6">
         <v>13</v>
       </c>
-      <c r="S43" s="6" t="s">
+      <c r="U43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="V43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
         <v>20.9</v>
       </c>
-      <c r="AA43" s="15">
+      <c r="AC43" s="15">
         <v>23.5</v>
       </c>
-      <c r="AB43" s="15">
+      <c r="AD43" s="15">
         <v>24</v>
       </c>
-      <c r="AC43" s="15">
+      <c r="AE43" s="15">
         <v>24.7</v>
       </c>
-      <c r="AD43" s="15">
+      <c r="AF43" s="15">
         <v>25.4</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="7">
-        <v>0</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="B44" s="61">
+        <v>5.0324999999999998</v>
+      </c>
+      <c r="C44" s="60">
+        <v>100.79</v>
+      </c>
+      <c r="D44" s="57">
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -3668,64 +3902,66 @@
       <c r="I44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="6">
         <v>18</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="M44" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L44" s="6">
+      <c r="N44" s="6">
         <v>58</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="O44" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N44" s="6">
+      <c r="P44" s="6">
         <v>50</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="Q44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="R44" s="7">
         <v>0</v>
       </c>
       <c r="S44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="X44" s="19" t="s">
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Z44" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="Y44" s="34" t="s">
+      <c r="AA44" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="30"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="2"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="7">
-        <v>0</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="57">
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -3743,74 +3979,80 @@
       <c r="I45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="6">
         <v>19</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="L45" s="6">
-        <v>59</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="N45" s="6">
         <v>59</v>
       </c>
       <c r="O45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="6">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="P45" s="6">
+      <c r="R45" s="6">
         <v>54</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="S45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R45" s="5">
+      <c r="T45" s="5">
         <v>37</v>
       </c>
-      <c r="S45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T45" s="2" t="s">
+      <c r="U45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="X45" s="44" t="s">
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Z45" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="Y45" s="38" t="s">
+      <c r="AA45" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AB45" s="1">
         <v>4.87</v>
       </c>
-      <c r="AA45" s="23">
+      <c r="AC45" s="23">
         <v>5</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AD45" s="1">
         <v>6.5</v>
       </c>
-      <c r="AC45" s="23">
+      <c r="AE45" s="23">
         <v>6.65</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AF45" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="7">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="B46" s="60">
+        <v>5.237222</v>
+      </c>
+      <c r="C46" s="60">
+        <v>100.72</v>
+      </c>
+      <c r="D46" s="57">
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -3828,417 +4070,453 @@
       <c r="I46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="6">
         <v>19</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="M46" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L46" s="6">
+      <c r="N46" s="6">
         <v>59</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="O46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N46" s="6">
-        <v>57</v>
-      </c>
-      <c r="O46" s="6" t="s">
+      <c r="P46" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="P46" s="6">
+      <c r="R46" s="6">
         <v>54</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="S46" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R46" s="6">
+      <c r="T46" s="6">
         <v>26</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="U46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="34" t="s">
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AB46" s="2">
         <v>17.78</v>
       </c>
-      <c r="AA46" s="30">
+      <c r="AC46" s="30">
         <v>18</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AD46" s="2">
         <v>19.8</v>
       </c>
-      <c r="AC46" s="30">
+      <c r="AE46" s="30">
         <v>20.7</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AF46" s="2">
         <v>21.6</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="5">
-        <v>60</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="B47" s="60">
+        <v>3.835331</v>
+      </c>
+      <c r="C47" s="60">
+        <v>101.4941</v>
+      </c>
+      <c r="D47" s="55">
+        <v>60</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="6">
         <v>58</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="5">
-        <v>60</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H47" s="5">
         <v>60</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
+        <v>60</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="6">
         <v>32</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L47" s="6">
-        <v>56</v>
-      </c>
-      <c r="M47" s="6" t="s">
+      <c r="N47" s="6">
+        <v>56</v>
+      </c>
+      <c r="O47" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N47" s="5">
-        <v>60</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" s="6">
+      <c r="P47" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="6">
         <v>55</v>
       </c>
-      <c r="Q47" s="6" t="s">
+      <c r="S47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R47" s="6">
+      <c r="T47" s="6">
         <v>32</v>
       </c>
-      <c r="S47" s="6" t="s">
+      <c r="U47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="V47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="38" t="s">
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Z47" s="33">
+      <c r="AB47" s="33">
         <v>8.73</v>
       </c>
-      <c r="AA47" s="29">
+      <c r="AC47" s="29">
         <v>8.5</v>
       </c>
-      <c r="AB47" s="33">
+      <c r="AD47" s="33">
         <v>11</v>
       </c>
-      <c r="AC47" s="29">
+      <c r="AE47" s="29">
         <v>11.9</v>
       </c>
-      <c r="AD47" s="33">
+      <c r="AF47" s="33">
         <v>12.8</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="5">
-        <v>60</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="B48" s="60">
+        <v>3.8263889999999998</v>
+      </c>
+      <c r="C48" s="60">
+        <v>101.41111100000001</v>
+      </c>
+      <c r="D48" s="55">
+        <v>60</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="6">
         <v>59</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="5">
-        <v>60</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
+        <v>60</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="6">
         <v>58</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="K48" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="6">
+      <c r="L48" s="6">
         <v>49</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="M48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L48" s="5">
-        <v>60</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N48" s="5">
         <v>60</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" s="6">
         <v>55</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="S48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R48" s="5">
+      <c r="T48" s="5">
         <v>37</v>
       </c>
-      <c r="S48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T48" s="2" t="s">
+      <c r="U48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U48" s="14"/>
-      <c r="V48" s="13"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="13"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
     </row>
-    <row r="49" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="60">
+        <v>4.6680419999999998</v>
+      </c>
+      <c r="C49" s="60">
+        <v>101.157006</v>
+      </c>
+      <c r="D49" s="56">
         <v>49</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="6">
+      <c r="F49" s="6">
         <v>54</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="5">
-        <v>60</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H49" s="5">
         <v>60</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
+        <v>60</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="6">
         <v>51</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="M49" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="5">
-        <v>60</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="N49" s="5">
         <v>60</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" s="6">
         <v>53</v>
       </c>
-      <c r="Q49" s="6" t="s">
+      <c r="S49" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="R49" s="5">
+      <c r="T49" s="5">
         <v>37</v>
       </c>
-      <c r="S49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T49" s="2" t="s">
+      <c r="U49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U49" s="14"/>
-      <c r="V49" s="13"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="13"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
     </row>
-    <row r="50" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="5">
-        <v>60</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="B50" s="60">
+        <v>4.322222</v>
+      </c>
+      <c r="C50" s="60">
+        <v>101.075</v>
+      </c>
+      <c r="D50" s="55">
+        <v>60</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="6">
         <v>52</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="6">
+      <c r="H50" s="6">
         <v>59</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="5">
-        <v>60</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
+        <v>60</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="6">
         <v>46</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="M50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L50" s="6">
-        <v>57</v>
-      </c>
-      <c r="M50" s="6" t="s">
+      <c r="N50" s="6">
+        <v>57</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="N50" s="5">
-        <v>60</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="6">
         <v>55</v>
       </c>
-      <c r="Q50" s="6" t="s">
+      <c r="S50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R50" s="5">
+      <c r="T50" s="5">
         <v>37</v>
       </c>
-      <c r="S50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T50" s="2" t="s">
+      <c r="U50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U50" s="14"/>
-      <c r="V50" s="13"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="13"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
     </row>
-    <row r="51" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="60">
+        <v>5.550586</v>
+      </c>
+      <c r="C51" s="60">
+        <v>101.352733</v>
+      </c>
+      <c r="D51" s="56">
         <v>55</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="6">
+      <c r="F51" s="6">
         <v>55</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="5">
-        <v>60</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H51" s="5">
         <v>60</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
+        <v>60</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="6">
         <v>51</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="M51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L51" s="6">
+      <c r="N51" s="6">
         <v>59</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="O51" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N51" s="5">
-        <v>60</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P51" s="6">
+      <c r="P51" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="6">
         <v>55</v>
       </c>
-      <c r="Q51" s="6" t="s">
+      <c r="S51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R51" s="5">
+      <c r="T51" s="5">
         <v>37</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51" s="2" t="s">
+      <c r="U51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U51" s="14"/>
-      <c r="V51" s="13"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="13"/>
     </row>
-    <row r="52" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="5">
-        <v>60</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="B52" s="60">
+        <v>4.2558999999999996</v>
+      </c>
+      <c r="C52" s="60">
+        <v>100.89937999999999</v>
+      </c>
+      <c r="D52" s="55">
         <v>60</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -4250,200 +4528,218 @@
       <c r="G52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
+        <v>60</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="6">
         <v>50</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="6">
+      <c r="L52" s="6">
         <v>49</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="M52" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="6">
+      <c r="N52" s="6">
         <v>58</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="O52" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N52" s="5">
-        <v>60</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" s="6">
         <v>53</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="S52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R52" s="5">
+      <c r="T52" s="5">
         <v>37</v>
       </c>
-      <c r="S52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T52" s="2" t="s">
+      <c r="U52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="14"/>
-      <c r="V52" s="13"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="60">
+        <v>5.1206060000000004</v>
+      </c>
+      <c r="C53" s="60">
+        <v>100.804141</v>
+      </c>
+      <c r="D53" s="56">
         <v>51</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="6">
-        <v>56</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6">
+        <v>56</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="5">
-        <v>60</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H53" s="5">
         <v>60</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
+        <v>60</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="6">
         <v>49</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="M53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="L53" s="6">
+      <c r="N53" s="6">
         <v>59</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="O53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="6">
-        <v>57</v>
-      </c>
-      <c r="O53" s="6" t="s">
+      <c r="P53" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q53" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="P53" s="6">
+      <c r="R53" s="6">
         <v>52</v>
       </c>
-      <c r="Q53" s="6" t="s">
+      <c r="S53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="R53" s="5">
+      <c r="T53" s="5">
         <v>37</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T53" s="2" t="s">
+      <c r="U53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U53" s="14"/>
-      <c r="V53" s="13"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="13"/>
     </row>
-    <row r="54" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="5">
-        <v>60</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="B54" s="60">
+        <v>3.8656419999999998</v>
+      </c>
+      <c r="C54" s="60">
+        <v>101.448064</v>
+      </c>
+      <c r="D54" s="55">
+        <v>60</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="6">
         <v>58</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="6">
+      <c r="H54" s="6">
         <v>59</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="5">
-        <v>60</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
+        <v>60</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="6">
         <v>51</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="M54" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L54" s="5">
-        <v>60</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
+        <v>60</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P54" s="6">
         <v>58</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P54" s="6">
+      <c r="R54" s="6">
         <v>47</v>
       </c>
-      <c r="Q54" s="6" t="s">
+      <c r="S54" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R54" s="6">
+      <c r="T54" s="6">
         <v>35</v>
       </c>
-      <c r="S54" s="6" t="s">
+      <c r="U54" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="V54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z59" s="23"/>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB59" s="23"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z60" s="23"/>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB60" s="23"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z61" s="23"/>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB61" s="23"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Z62" s="23"/>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB62" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="X45:X47"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="X39:X43"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X32:X36"/>
-    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="Z32:Z36"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="Z45:Z47"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="Z24:Z26"/>
+    <mergeCell ref="Z39:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perak.xlsx
+++ b/Perak.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kidden/Desktop/ILLUMINATI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bebechin/Desktop/ILLUMINATI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CBC306-1B7D-4E4D-A9D6-BC77BEB5C9A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF6AB2-5EC4-0047-B4D9-4B5B17DAA61A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="0" windowWidth="25560" windowHeight="28800" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{812C2406-B096-9241-9559-B564FEB1053F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="207">
   <si>
     <t>B14BatuKurau</t>
   </si>
@@ -640,13 +640,22 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Population (Number)</t>
+  </si>
+  <si>
+    <t>Population (Percentage)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -903,7 +912,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -987,39 +996,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,6 +1024,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,14 +1388,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C31CC8C-ADE8-444D-83D6-A7A39ED7E344}">
-  <dimension ref="A12:AF62"/>
+  <dimension ref="A12:AH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -1392,33 +1413,34 @@
     <col min="23" max="24" width="15" customWidth="1"/>
     <col min="26" max="27" width="33.33203125" customWidth="1"/>
     <col min="28" max="28" width="14.1640625" customWidth="1"/>
+    <col min="33" max="34" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="44" t="s">
+    <row r="12" spans="1:24" ht="17" thickBot="1"/>
+    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1">
+      <c r="D13" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
     </row>
-    <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:24" ht="17" thickBot="1">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1427,7 +1449,7 @@
       <c r="C14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="43">
         <v>2010</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1491,17 +1513,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="58">
+    <row r="15" spans="1:24" ht="17" thickBot="1">
+      <c r="A15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="47">
         <v>4.9776389999999999</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="49">
         <v>100.779222</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="44">
         <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1561,13 +1583,13 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:24" ht="17" thickBot="1">
+      <c r="A16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="55">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="44">
         <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1627,17 +1649,17 @@
       <c r="W16" s="13"/>
       <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:34" ht="17" thickBot="1">
+      <c r="A17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="47">
         <v>4.8501940000000001</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="47">
         <v>100.783528</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="45">
         <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1696,23 +1718,23 @@
       </c>
       <c r="W17" s="13"/>
       <c r="X17" s="14"/>
-      <c r="Z17" s="42" t="s">
+      <c r="Z17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="43"/>
+      <c r="AA17" s="61"/>
       <c r="AB17" s="22"/>
     </row>
-    <row r="18" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:34" ht="17" thickBot="1">
+      <c r="A18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="49">
         <v>5.0183</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="49">
         <v>100.652778</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="44">
         <v>60</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1777,13 +1799,13 @@
       </c>
       <c r="AB18" s="23"/>
     </row>
-    <row r="19" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:34" ht="17" thickBot="1">
+      <c r="A19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="56">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45">
         <v>56</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1841,20 +1863,20 @@
         <v>202</v>
       </c>
       <c r="W19" s="13"/>
-      <c r="X19" s="14"/>
+      <c r="X19" s="13"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AB19" s="23"/>
     </row>
-    <row r="20" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:34" ht="17" thickBot="1">
+      <c r="A20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="56">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45">
         <v>51</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1919,17 +1941,17 @@
       </c>
       <c r="AB20" s="23"/>
     </row>
-    <row r="21" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+    <row r="21" spans="1:34" ht="17" thickBot="1">
+      <c r="A21" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="49">
         <v>5.1636110000000004</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="49">
         <v>100.7675</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="46">
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1989,17 +2011,17 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+    <row r="22" spans="1:34" ht="35" customHeight="1" thickBot="1">
+      <c r="A22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="49">
         <v>4.4342779999999999</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="49">
         <v>101.190831</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="44">
         <v>60</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -2058,24 +2080,24 @@
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="14"/>
-      <c r="AC22" s="44" t="s">
+      <c r="AC22" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="46"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="53"/>
     </row>
-    <row r="23" spans="1:32" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+    <row r="23" spans="1:34" ht="35" thickBot="1">
+      <c r="A23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="49">
         <v>4.8193999999999999</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="49">
         <v>100.965278</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="44">
         <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2155,18 +2177,24 @@
       <c r="AF23" s="27" t="s">
         <v>191</v>
       </c>
+      <c r="AG23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:34" ht="18" customHeight="1" thickBot="1">
+      <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="47">
         <v>5.6041670000000003</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="49">
         <v>101.080556</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="45">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2225,7 +2253,7 @@
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="14"/>
-      <c r="Z24" s="39" t="s">
+      <c r="Z24" s="56" t="s">
         <v>186</v>
       </c>
       <c r="AA24" s="34" t="s">
@@ -2236,18 +2264,26 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="30"/>
       <c r="AF24" s="2"/>
+      <c r="AG24" s="54">
+        <f>115240+64254</f>
+        <v>179494</v>
+      </c>
+      <c r="AH24" s="62">
+        <f>AG24/AG50*100</f>
+        <v>7.9641843759220681</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:34" ht="17" thickBot="1">
+      <c r="A25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="49">
         <v>4.1795999999999998</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="49">
         <v>100.929925</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="44">
         <v>60</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -2306,7 +2342,7 @@
       </c>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
-      <c r="Z25" s="40"/>
+      <c r="Z25" s="58"/>
       <c r="AA25" s="35" t="s">
         <v>14</v>
       </c>
@@ -2325,18 +2361,20 @@
       <c r="AF25" s="1">
         <v>28</v>
       </c>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="63"/>
     </row>
-    <row r="26" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+    <row r="26" spans="1:34" ht="17" thickBot="1">
+      <c r="A26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="49">
         <v>4.9375</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="47">
         <v>101.102778</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="45">
         <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2395,7 +2433,7 @@
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
-      <c r="Z26" s="41"/>
+      <c r="Z26" s="57"/>
       <c r="AA26" s="34" t="s">
         <v>8</v>
       </c>
@@ -2404,18 +2442,20 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="2"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="64"/>
     </row>
-    <row r="27" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:34" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="49">
         <v>5.1497219999999997</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="49">
         <v>100.88500000000001</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="46">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -2474,29 +2514,47 @@
       </c>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
-      <c r="Z27" s="47" t="s">
+      <c r="Z27" s="54" t="s">
         <v>192</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="2"/>
+      <c r="AB27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC27" s="30">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AE27" s="30">
+        <v>3.4</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AG27" s="54">
+        <f>208570</f>
+        <v>208570</v>
+      </c>
+      <c r="AH27" s="54">
+        <f>AG27/AG50*100</f>
+        <v>9.2542922620592645</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:34" ht="17" thickBot="1">
+      <c r="A28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="49">
         <v>5.0866660000000001</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="49">
         <v>100.859722</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="46">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2555,7 +2613,7 @@
       </c>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
-      <c r="Z28" s="48"/>
+      <c r="Z28" s="55"/>
       <c r="AA28" s="34" t="s">
         <v>24</v>
       </c>
@@ -2574,18 +2632,20 @@
       <c r="AF28" s="32">
         <v>4</v>
       </c>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
     </row>
-    <row r="29" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:34" ht="17" thickBot="1">
+      <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="49">
         <v>4.3858470000000001</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="47">
         <v>101.21458</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="44">
         <v>60</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2644,7 +2704,7 @@
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
-      <c r="Z29" s="39" t="s">
+      <c r="Z29" s="56" t="s">
         <v>193</v>
       </c>
       <c r="AA29" s="35" t="s">
@@ -2655,18 +2715,26 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="30"/>
       <c r="AF29" s="2"/>
+      <c r="AG29" s="54">
+        <f>91218</f>
+        <v>91218</v>
+      </c>
+      <c r="AH29" s="54">
+        <f>AG29/AG50*100</f>
+        <v>4.0473607496788713</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+    <row r="30" spans="1:34" ht="17" thickBot="1">
+      <c r="A30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="49">
         <v>4.9252770000000003</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="49">
         <v>100.82805500000001</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="46">
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -2725,7 +2793,7 @@
       </c>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
-      <c r="Z30" s="41"/>
+      <c r="Z30" s="57"/>
       <c r="AA30" s="34" t="s">
         <v>11</v>
       </c>
@@ -2744,14 +2812,16 @@
       <c r="AF30" s="1">
         <v>248.38</v>
       </c>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
     </row>
-    <row r="31" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:34" ht="17" thickBot="1">
+      <c r="A31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="57">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46">
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2829,18 +2899,26 @@
       <c r="AF31" s="2">
         <v>9.14</v>
       </c>
+      <c r="AG31" s="35">
+        <f>179706</f>
+        <v>179706</v>
+      </c>
+      <c r="AH31" s="3">
+        <f>AG31/AG50*100</f>
+        <v>7.9735908579643393</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+    <row r="32" spans="1:34" ht="18" customHeight="1" thickBot="1">
+      <c r="A32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="49">
         <v>5.275188</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="49">
         <v>100.780361</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="46">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2899,7 +2977,7 @@
       </c>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
-      <c r="Z32" s="39" t="s">
+      <c r="Z32" s="56" t="s">
         <v>196</v>
       </c>
       <c r="AA32" s="34" t="s">
@@ -2910,18 +2988,26 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="23"/>
       <c r="AF32" s="1"/>
+      <c r="AG32" s="54">
+        <f>767794</f>
+        <v>767794</v>
+      </c>
+      <c r="AH32" s="54">
+        <f>AG32/AG50*100</f>
+        <v>34.067172043225447</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:34" ht="17" thickBot="1">
+      <c r="A33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="49">
         <v>5.4166670000000003</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="49">
         <v>101.154167</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="46">
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2980,7 +3066,7 @@
       </c>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
-      <c r="Z33" s="40"/>
+      <c r="Z33" s="58"/>
       <c r="AA33" s="35" t="s">
         <v>37</v>
       </c>
@@ -2989,18 +3075,20 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="30"/>
       <c r="AF33" s="2"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
     </row>
-    <row r="34" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:34" ht="17" thickBot="1">
+      <c r="A34" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="49">
         <v>4.5780399999999997</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="49">
         <v>101.06891</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="44">
         <v>60</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -3059,7 +3147,7 @@
       </c>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
-      <c r="Z34" s="40"/>
+      <c r="Z34" s="58"/>
       <c r="AA34" s="34" t="s">
         <v>28</v>
       </c>
@@ -3078,18 +3166,20 @@
       <c r="AF34" s="1">
         <v>36</v>
       </c>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
     </row>
-    <row r="35" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+    <row r="35" spans="1:34" ht="17" thickBot="1">
+      <c r="A35" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="49">
         <v>5.2472219999999998</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="49">
         <v>100.729722</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="46">
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -3148,7 +3238,7 @@
       </c>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
-      <c r="Z35" s="40"/>
+      <c r="Z35" s="58"/>
       <c r="AA35" s="35" t="s">
         <v>13</v>
       </c>
@@ -3167,18 +3257,20 @@
       <c r="AF35" s="2">
         <v>67.8</v>
       </c>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
     </row>
-    <row r="36" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+    <row r="36" spans="1:34" ht="17" thickBot="1">
+      <c r="A36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="49">
         <v>5.2588879999999998</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="49">
         <v>100.831666</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="46">
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -3237,7 +3329,7 @@
       </c>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
-      <c r="Z36" s="41"/>
+      <c r="Z36" s="57"/>
       <c r="AA36" s="34" t="s">
         <v>12</v>
       </c>
@@ -3256,18 +3348,20 @@
       <c r="AF36" s="1">
         <v>14.5</v>
       </c>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
     </row>
-    <row r="37" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+    <row r="37" spans="1:34" ht="17" thickBot="1">
+      <c r="A37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="49">
         <v>4.4722</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="49">
         <v>100.9046</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="44">
         <v>60</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -3326,7 +3420,7 @@
       </c>
       <c r="W37" s="14"/>
       <c r="X37" s="13"/>
-      <c r="Z37" s="47" t="s">
+      <c r="Z37" s="54" t="s">
         <v>197</v>
       </c>
       <c r="AA37" s="3" t="s">
@@ -3347,18 +3441,26 @@
       <c r="AF37" s="2">
         <v>54.8</v>
       </c>
+      <c r="AG37" s="54">
+        <f>159505</f>
+        <v>159505</v>
+      </c>
+      <c r="AH37" s="54">
+        <f>AG37/AG50*100</f>
+        <v>7.0772684818514797</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+    <row r="38" spans="1:34" ht="17" thickBot="1">
+      <c r="A38" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="49">
         <v>3.9881579999999999</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="49">
         <v>100.765469</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="46">
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -3417,7 +3519,7 @@
       </c>
       <c r="W38" s="14"/>
       <c r="X38" s="13"/>
-      <c r="Z38" s="49"/>
+      <c r="Z38" s="59"/>
       <c r="AA38" s="34" t="s">
         <v>34</v>
       </c>
@@ -3436,18 +3538,20 @@
       <c r="AF38" s="1">
         <v>36.299999999999997</v>
       </c>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
     </row>
-    <row r="39" spans="1:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+    <row r="39" spans="1:34" ht="17" customHeight="1" thickBot="1">
+      <c r="A39" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="49">
         <v>5.0118499999999999</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="49">
         <v>100.73116</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="44">
         <v>60</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -3506,7 +3610,7 @@
       </c>
       <c r="W39" s="14"/>
       <c r="X39" s="13"/>
-      <c r="Z39" s="39" t="s">
+      <c r="Z39" s="56" t="s">
         <v>185</v>
       </c>
       <c r="AA39" s="36" t="s">
@@ -3516,19 +3620,27 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="30"/>
-      <c r="AF39" s="2"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="54">
+        <f>295674+38399</f>
+        <v>334073</v>
+      </c>
+      <c r="AH39" s="54">
+        <f>AG39/AG50*100</f>
+        <v>14.822885260885673</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+    <row r="40" spans="1:34" ht="17" thickBot="1">
+      <c r="A40" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="60">
+      <c r="B40" s="49">
         <v>4.2463050000000004</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="47">
         <v>100.55425</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="45">
         <v>59</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -3587,7 +3699,7 @@
       </c>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
-      <c r="Z40" s="40"/>
+      <c r="Z40" s="58"/>
       <c r="AA40" s="37" t="s">
         <v>23</v>
       </c>
@@ -3603,21 +3715,23 @@
       <c r="AE40" s="23">
         <v>15.24</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF40" s="42">
         <v>15.8</v>
       </c>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
     </row>
-    <row r="41" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
+    <row r="41" spans="1:34" ht="17" thickBot="1">
+      <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="49">
         <v>5.0463880000000003</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="49">
         <v>100.59055499999999</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="46">
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -3676,7 +3790,7 @@
       </c>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
-      <c r="Z41" s="40"/>
+      <c r="Z41" s="58"/>
       <c r="AA41" s="36" t="s">
         <v>9</v>
       </c>
@@ -3692,21 +3806,23 @@
       <c r="AE41" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="40">
         <v>35.5</v>
       </c>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
     </row>
-    <row r="42" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+    <row r="42" spans="1:34" ht="17" thickBot="1">
+      <c r="A42" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="49">
         <v>5.0666669999999998</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="49">
         <v>100.53694400000001</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="46">
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -3765,7 +3881,7 @@
       </c>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
-      <c r="Z42" s="40"/>
+      <c r="Z42" s="58"/>
       <c r="AA42" s="37" t="s">
         <v>39</v>
       </c>
@@ -3781,21 +3897,23 @@
       <c r="AE42" s="15">
         <v>20.25</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="40">
         <v>21</v>
       </c>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
     </row>
-    <row r="43" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
+    <row r="43" spans="1:34" ht="17" thickBot="1">
+      <c r="A43" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="49">
         <v>5.2166670000000002</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="49">
         <v>100.6833</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="44">
         <v>60</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -3854,7 +3972,7 @@
       </c>
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
-      <c r="Z43" s="41"/>
+      <c r="Z43" s="58"/>
       <c r="AA43" s="36" t="s">
         <v>0</v>
       </c>
@@ -3870,21 +3988,23 @@
       <c r="AE43" s="15">
         <v>24.7</v>
       </c>
-      <c r="AF43" s="15">
+      <c r="AF43" s="41">
         <v>25.4</v>
       </c>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
     </row>
-    <row r="44" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+    <row r="44" spans="1:34" ht="18" customHeight="1" thickBot="1">
+      <c r="A44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="50">
         <v>5.0324999999999998</v>
       </c>
-      <c r="C44" s="60">
+      <c r="C44" s="49">
         <v>100.79</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="46">
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -3942,26 +4062,36 @@
         <v>44</v>
       </c>
       <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Z44" s="19" t="s">
-        <v>198</v>
-      </c>
+      <c r="X44" s="13"/>
+      <c r="Z44" s="58"/>
       <c r="AA44" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>14.65</v>
+      </c>
+      <c r="AF44" s="40">
+        <v>15</v>
+      </c>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
     </row>
-    <row r="45" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+    <row r="45" spans="1:34" ht="17" thickBot="1">
+      <c r="A45" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="57">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="46">
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -4020,39 +4150,39 @@
       </c>
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
-      <c r="Z45" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA45" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>4.87</v>
-      </c>
-      <c r="AC45" s="23">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AE45" s="23">
-        <v>6.65</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>7</v>
-      </c>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="AF45" s="40">
+        <v>24.5</v>
+      </c>
+      <c r="AG45" s="55"/>
+      <c r="AH45" s="55"/>
     </row>
-    <row r="46" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+    <row r="46" spans="1:34" ht="18" thickBot="1">
+      <c r="A46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="49">
         <v>5.237222</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C46" s="49">
         <v>100.72</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="46">
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -4110,38 +4240,38 @@
         <v>44</v>
       </c>
       <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Z46" s="40"/>
+      <c r="X46" s="13"/>
+      <c r="Z46" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="AA46" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="AC46" s="30">
-        <v>18</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="AE46" s="30">
-        <v>20.7</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>21.6</v>
+        <v>22</v>
+      </c>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="19">
+        <f>232277</f>
+        <v>232277</v>
+      </c>
+      <c r="AH46" s="3">
+        <f>AG46/AG50*100</f>
+        <v>10.306176553456107</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+    <row r="47" spans="1:34" ht="17" thickBot="1">
+      <c r="A47" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="60">
+      <c r="B47" s="49">
         <v>3.835331</v>
       </c>
-      <c r="C47" s="60">
+      <c r="C47" s="49">
         <v>101.4941</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="44">
         <v>60</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -4200,37 +4330,47 @@
       </c>
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
-      <c r="Z47" s="41"/>
+      <c r="Z47" s="56" t="s">
+        <v>199</v>
+      </c>
       <c r="AA47" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB47" s="33">
-        <v>8.73</v>
-      </c>
-      <c r="AC47" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="AD47" s="33">
-        <v>11</v>
-      </c>
-      <c r="AE47" s="29">
-        <v>11.9</v>
-      </c>
-      <c r="AF47" s="33">
-        <v>12.8</v>
+        <v>33</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="AC47" s="23">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AE47" s="23">
+        <v>6.65</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG47" s="54">
+        <f>101128</f>
+        <v>101128</v>
+      </c>
+      <c r="AH47" s="54">
+        <f>AG47/AG50*100</f>
+        <v>4.4870694149567498</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+    <row r="48" spans="1:34" ht="17" thickBot="1">
+      <c r="A48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="60">
+      <c r="B48" s="49">
         <v>3.8263889999999998</v>
       </c>
-      <c r="C48" s="60">
+      <c r="C48" s="49">
         <v>101.41111100000001</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="44">
         <v>60</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -4289,20 +4429,39 @@
       </c>
       <c r="W48" s="14"/>
       <c r="X48" s="13"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>17.78</v>
+      </c>
+      <c r="AC48" s="30">
+        <v>18</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="AE48" s="30">
+        <v>20.7</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="AG48" s="59"/>
+      <c r="AH48" s="59"/>
     </row>
-    <row r="49" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+    <row r="49" spans="1:34" ht="17" thickBot="1">
+      <c r="A49" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="60">
+      <c r="B49" s="49">
         <v>4.6680419999999998</v>
       </c>
-      <c r="C49" s="60">
+      <c r="C49" s="49">
         <v>101.157006</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="45">
         <v>49</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4361,20 +4520,39 @@
       </c>
       <c r="W49" s="14"/>
       <c r="X49" s="13"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="33">
+        <v>8.73</v>
+      </c>
+      <c r="AC49" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="AD49" s="33">
+        <v>11</v>
+      </c>
+      <c r="AE49" s="29">
+        <v>11.9</v>
+      </c>
+      <c r="AF49" s="33">
+        <v>12.8</v>
+      </c>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
     </row>
-    <row r="50" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
+    <row r="50" spans="1:34" ht="17" thickBot="1">
+      <c r="A50" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="60">
+      <c r="B50" s="49">
         <v>4.322222</v>
       </c>
-      <c r="C50" s="60">
+      <c r="C50" s="49">
         <v>101.075</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="44">
         <v>60</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -4435,18 +4613,26 @@
       <c r="X50" s="13"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
+      <c r="AG50" s="21">
+        <f>SUM(AG24:AG49)</f>
+        <v>2253765</v>
+      </c>
+      <c r="AH50" s="21">
+        <f>SUM(AH24:AH49)</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
+    <row r="51" spans="1:34" ht="17" thickBot="1">
+      <c r="A51" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="60">
+      <c r="B51" s="49">
         <v>5.550586</v>
       </c>
-      <c r="C51" s="60">
+      <c r="C51" s="49">
         <v>101.352733</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="45">
         <v>55</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -4506,17 +4692,17 @@
       <c r="W51" s="14"/>
       <c r="X51" s="13"/>
     </row>
-    <row r="52" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+    <row r="52" spans="1:34" ht="17" thickBot="1">
+      <c r="A52" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="60">
+      <c r="B52" s="49">
         <v>4.2558999999999996</v>
       </c>
-      <c r="C52" s="60">
+      <c r="C52" s="49">
         <v>100.89937999999999</v>
       </c>
-      <c r="D52" s="55">
+      <c r="D52" s="44">
         <v>60</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -4576,17 +4762,17 @@
       <c r="W52" s="14"/>
       <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+    <row r="53" spans="1:34" ht="17" thickBot="1">
+      <c r="A53" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="60">
+      <c r="B53" s="49">
         <v>5.1206060000000004</v>
       </c>
-      <c r="C53" s="60">
+      <c r="C53" s="49">
         <v>100.804141</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="45">
         <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -4646,17 +4832,17 @@
       <c r="W53" s="14"/>
       <c r="X53" s="13"/>
     </row>
-    <row r="54" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
+    <row r="54" spans="1:34" ht="17" thickBot="1">
+      <c r="A54" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="60">
+      <c r="B54" s="49">
         <v>3.8656419999999998</v>
       </c>
-      <c r="C54" s="60">
+      <c r="C54" s="49">
         <v>101.448064</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D54" s="44">
         <v>60</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -4716,30 +4902,44 @@
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="AB59" s="23"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="AB60" s="23"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="AB61" s="23"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="AB62" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="24">
+    <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AH32:AH36"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AH47:AH49"/>
+    <mergeCell ref="AG39:AG45"/>
+    <mergeCell ref="AH39:AH45"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AG24:AG26"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AG32:AG36"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="Z24:Z26"/>
+    <mergeCell ref="Z39:Z45"/>
     <mergeCell ref="AC22:AF22"/>
     <mergeCell ref="Z27:Z28"/>
     <mergeCell ref="Z29:Z30"/>
     <mergeCell ref="Z32:Z36"/>
     <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="Z45:Z47"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="Z24:Z26"/>
-    <mergeCell ref="Z39:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
